--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1432651.496857289</v>
+        <v>1429934.547909799</v>
       </c>
     </row>
     <row r="7">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>12.38649119821389</v>
       </c>
       <c r="E8" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.78285361847987</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>14.77091130807794</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>14.77091130807799</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.77091130807794</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.77091130807799</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>144.6593412925751</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>38.87118869386453</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>269.03069026201</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4956572936549</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H12" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T12" t="n">
         <v>125.2531402403599</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>90.72738739895451</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.8019361131075</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>65.10706749593524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>275.6075589820427</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>155.3082983762752</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>82.84721120392692</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>269.03069026201</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.60760481986009</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H15" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T15" t="n">
         <v>125.2531402403599</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>23.25687549650663</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>144.513748531129</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.2002309623311</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6075589820427</v>
+        <v>85.41732676611181</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>164.8470874677697</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.703573531739</v>
       </c>
       <c r="H17" t="n">
-        <v>269.03069026201</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.52598526010514</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.5111312077339</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4956572936549</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>396.4978856727923</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H18" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T18" t="n">
         <v>125.2531402403599</v>
@@ -2055,10 +2055,10 @@
         <v>144.513748531129</v>
       </c>
       <c r="T19" t="n">
-        <v>240.2002309623309</v>
+        <v>240.2002309623311</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6075589820427</v>
+        <v>275.6075589820425</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2089,16 +2089,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.703573531739</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>269.03069026201</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>44.52598526010514</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>175.2129146311563</v>
       </c>
       <c r="U20" t="n">
         <v>256.4956572936549</v>
@@ -2143,10 +2143,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>304.8342795220693</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H21" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T21" t="n">
         <v>125.2531402403599</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>44.52598526010514</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T23" t="n">
         <v>210.5111312077339</v>
@@ -2414,7 +2414,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H24" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T24" t="n">
         <v>125.2531402403599</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>44.52598526010514</v>
+        <v>44.52598526010578</v>
       </c>
       <c r="T26" t="n">
         <v>210.5111312077339</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4956572936549</v>
+        <v>256.4956572936551</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2651,7 +2651,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H27" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T27" t="n">
         <v>125.2531402403599</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>44.52598526010514</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T29" t="n">
         <v>210.5111312077339</v>
@@ -2888,7 +2888,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H30" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T30" t="n">
         <v>125.2531402403599</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.52598526010514</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T32" t="n">
         <v>210.5111312077339</v>
       </c>
       <c r="U32" t="n">
-        <v>256.495657293657</v>
+        <v>256.4956572936549</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3125,7 +3125,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H33" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T33" t="n">
         <v>125.2531402403599</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>90.0094825010555</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>220.7151996888447</v>
+        <v>395.703573531739</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>269.03069026201</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.52598526010514</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T35" t="n">
         <v>210.5111312077339</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4956572936549</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H36" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T36" t="n">
         <v>125.2531402403599</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978609</v>
       </c>
       <c r="G37" t="n">
         <v>163.1816466724098</v>
@@ -3480,7 +3480,7 @@
         <v>240.2002309623311</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6075589820421</v>
+        <v>275.6075589820427</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3520,7 +3520,7 @@
         <v>395.703573531739</v>
       </c>
       <c r="H38" t="n">
-        <v>269.03069026201</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T38" t="n">
         <v>210.5111312077339</v>
@@ -3562,7 +3562,7 @@
         <v>256.4956572936549</v>
       </c>
       <c r="V38" t="n">
-        <v>100.119770896825</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.7839596972885</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H39" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T39" t="n">
         <v>125.2531402403599</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117697</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3717,7 +3717,7 @@
         <v>240.2002309623311</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6075589820425</v>
+        <v>275.6075589820427</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3748,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>269.03069026201</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.52598526010514</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.5111312077339</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>376.5361528662684</v>
       </c>
       <c r="X41" t="n">
-        <v>242.1856499929559</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H42" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T42" t="n">
         <v>125.2531402403599</v>
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>65.11879847485649</v>
+        <v>163.1816466724098</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.8019361131075</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>65.10706749593524</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>144.513748531129</v>
       </c>
       <c r="T43" t="n">
-        <v>240.2002309623311</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6075589820427</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>169.0379235348616</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.6391363035312</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>189.4933735480674</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.703573531739</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>44.52598526010514</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T44" t="n">
-        <v>210.5111312077339</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.63221002880162</v>
       </c>
       <c r="H45" t="n">
-        <v>32.63557007202299</v>
+        <v>32.63557007202298</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>46.12181738439349</v>
+        <v>46.12181738439348</v>
       </c>
       <c r="T45" t="n">
         <v>125.2531402403599</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>23.25687549650662</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.8019361131075</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>65.10706749593524</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>144.513748531129</v>
       </c>
       <c r="T46" t="n">
-        <v>240.2002309623311</v>
+        <v>222.4237482174669</v>
       </c>
       <c r="U46" t="n">
         <v>275.6075589820427</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.22314075224864</v>
+        <v>30.79247164086893</v>
       </c>
       <c r="C8" t="n">
-        <v>34.22314075224864</v>
+        <v>13.85319776212004</v>
       </c>
       <c r="D8" t="n">
-        <v>34.22314075224864</v>
+        <v>1.341590491196912</v>
       </c>
       <c r="E8" t="n">
-        <v>17.28386687349981</v>
+        <v>1.341590491196912</v>
       </c>
       <c r="F8" t="n">
-        <v>1.341590491196907</v>
+        <v>1.341590491196912</v>
       </c>
       <c r="G8" t="n">
-        <v>1.341590491196907</v>
+        <v>1.341590491196912</v>
       </c>
       <c r="H8" t="n">
-        <v>1.341590491196907</v>
+        <v>1.341590491196912</v>
       </c>
       <c r="I8" t="n">
-        <v>1.341590491196907</v>
+        <v>1.341590491196912</v>
       </c>
       <c r="J8" t="n">
-        <v>1.341590491196907</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="K8" t="n">
-        <v>17.94377281975864</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="L8" t="n">
-        <v>17.94377281975864</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="M8" t="n">
-        <v>17.94377281975864</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="N8" t="n">
-        <v>17.94377281975864</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="O8" t="n">
-        <v>34.54595514832036</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="P8" t="n">
-        <v>34.54595514832036</v>
+        <v>33.87515990272203</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.14813747688209</v>
+        <v>50.47734223128381</v>
       </c>
       <c r="R8" t="n">
-        <v>67.07952455984537</v>
+        <v>67.07952455984559</v>
       </c>
       <c r="S8" t="n">
-        <v>67.07952455984537</v>
+        <v>67.07952455984559</v>
       </c>
       <c r="T8" t="n">
-        <v>67.07952455984537</v>
+        <v>67.07952455984559</v>
       </c>
       <c r="U8" t="n">
-        <v>67.07952455984537</v>
+        <v>67.07952455984559</v>
       </c>
       <c r="V8" t="n">
-        <v>67.07952455984537</v>
+        <v>67.07952455984559</v>
       </c>
       <c r="W8" t="n">
-        <v>66.26447401128273</v>
+        <v>67.07952455984559</v>
       </c>
       <c r="X8" t="n">
-        <v>51.16241463099747</v>
+        <v>51.97746517956034</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.16241463099747</v>
+        <v>47.73174551961782</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.07952455984537</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="C9" t="n">
-        <v>67.07952455984537</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="D9" t="n">
-        <v>50.14025068109653</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="E9" t="n">
-        <v>33.2009768023477</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="F9" t="n">
-        <v>16.26170292359886</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="G9" t="n">
-        <v>1.341590491196907</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="H9" t="n">
-        <v>1.341590491196907</v>
+        <v>1.341590491196912</v>
       </c>
       <c r="I9" t="n">
-        <v>17.94377281975864</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="J9" t="n">
-        <v>34.54595514832036</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="K9" t="n">
-        <v>34.54595514832036</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="L9" t="n">
-        <v>34.54595514832036</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="M9" t="n">
-        <v>34.54595514832036</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="N9" t="n">
-        <v>34.54595514832036</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="O9" t="n">
-        <v>34.54595514832036</v>
+        <v>33.87515990272203</v>
       </c>
       <c r="P9" t="n">
-        <v>34.54595514832036</v>
+        <v>50.47734223128381</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.47734223128364</v>
+        <v>50.47734223128381</v>
       </c>
       <c r="R9" t="n">
-        <v>67.07952455984537</v>
+        <v>67.07952455984559</v>
       </c>
       <c r="S9" t="n">
-        <v>67.07952455984537</v>
+        <v>50.1402506810967</v>
       </c>
       <c r="T9" t="n">
-        <v>67.07952455984537</v>
+        <v>50.1402506810967</v>
       </c>
       <c r="U9" t="n">
-        <v>67.07952455984537</v>
+        <v>50.1402506810967</v>
       </c>
       <c r="V9" t="n">
-        <v>67.07952455984537</v>
+        <v>50.1402506810967</v>
       </c>
       <c r="W9" t="n">
-        <v>67.07952455984537</v>
+        <v>50.1402506810967</v>
       </c>
       <c r="X9" t="n">
-        <v>67.07952455984537</v>
+        <v>50.1402506810967</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.07952455984537</v>
+        <v>33.20097680234781</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.26170292359886</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="C10" t="n">
-        <v>1.341590491196907</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="D10" t="n">
-        <v>1.341590491196907</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="E10" t="n">
-        <v>1.341590491196907</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="F10" t="n">
-        <v>1.341590491196907</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="G10" t="n">
-        <v>1.341590491196907</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="H10" t="n">
-        <v>1.341590491196907</v>
+        <v>1.341590491196912</v>
       </c>
       <c r="I10" t="n">
-        <v>1.341590491196907</v>
+        <v>1.341590491196912</v>
       </c>
       <c r="J10" t="n">
-        <v>1.341590491196907</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="K10" t="n">
-        <v>1.341590491196907</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="L10" t="n">
-        <v>1.341590491196907</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="M10" t="n">
-        <v>17.94377281975864</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="N10" t="n">
-        <v>34.54595514832036</v>
+        <v>17.9437728197587</v>
       </c>
       <c r="O10" t="n">
-        <v>51.14813747688209</v>
+        <v>33.87515990272203</v>
       </c>
       <c r="P10" t="n">
-        <v>67.07952455984537</v>
+        <v>50.47734223128381</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.07952455984537</v>
+        <v>67.07952455984559</v>
       </c>
       <c r="R10" t="n">
-        <v>50.14025068109653</v>
+        <v>50.1402506810967</v>
       </c>
       <c r="S10" t="n">
-        <v>50.14025068109653</v>
+        <v>33.20097680234781</v>
       </c>
       <c r="T10" t="n">
-        <v>50.14025068109653</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="U10" t="n">
-        <v>50.14025068109653</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="V10" t="n">
-        <v>50.14025068109653</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="W10" t="n">
-        <v>50.14025068109653</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="X10" t="n">
-        <v>50.14025068109653</v>
+        <v>16.26170292359892</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.2009768023477</v>
+        <v>16.26170292359892</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1185.941825352092</v>
+        <v>1383.459949908407</v>
       </c>
       <c r="C11" t="n">
-        <v>747.7993525355157</v>
+        <v>945.3174770918299</v>
       </c>
       <c r="D11" t="n">
-        <v>747.7993525355157</v>
+        <v>509.4076922662744</v>
       </c>
       <c r="E11" t="n">
-        <v>314.0246076938109</v>
+        <v>470.1438653027749</v>
       </c>
       <c r="F11" t="n">
-        <v>314.0246076938109</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="G11" t="n">
-        <v>314.0246076938109</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="H11" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="I11" t="n">
-        <v>105.9991273090972</v>
+        <v>105.9991273090975</v>
       </c>
       <c r="J11" t="n">
-        <v>247.1846359241647</v>
+        <v>247.1846359241651</v>
       </c>
       <c r="K11" t="n">
-        <v>458.7851147706149</v>
+        <v>458.7851147706153</v>
       </c>
       <c r="L11" t="n">
-        <v>721.2942197738964</v>
+        <v>721.294219773897</v>
       </c>
       <c r="M11" t="n">
         <v>1013.386179179549</v>
       </c>
       <c r="N11" t="n">
-        <v>1310.204491861126</v>
+        <v>1310.204491861127</v>
       </c>
       <c r="O11" t="n">
-        <v>1590.481607749925</v>
+        <v>1590.481607749926</v>
       </c>
       <c r="P11" t="n">
-        <v>1829.691641720764</v>
+        <v>1829.691641720765</v>
       </c>
       <c r="Q11" t="n">
-        <v>2009.328415086562</v>
+        <v>2009.328415086563</v>
       </c>
       <c r="R11" t="n">
-        <v>2113.821785599132</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="S11" t="n">
-        <v>2113.821785599132</v>
+        <v>2068.846042912158</v>
       </c>
       <c r="T11" t="n">
-        <v>2113.821785599132</v>
+        <v>2068.846042912158</v>
       </c>
       <c r="U11" t="n">
-        <v>2113.821785599132</v>
+        <v>1809.759520393314</v>
       </c>
       <c r="V11" t="n">
-        <v>1751.204835532958</v>
+        <v>1809.759520393314</v>
       </c>
       <c r="W11" t="n">
-        <v>1751.204835532958</v>
+        <v>1809.759520393314</v>
       </c>
       <c r="X11" t="n">
-        <v>1332.062372112269</v>
+        <v>1809.759520393314</v>
       </c>
       <c r="Y11" t="n">
-        <v>1332.062372112269</v>
+        <v>1809.759520393314</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>75.24165800695536</v>
       </c>
       <c r="H12" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="I12" t="n">
-        <v>72.92030579468702</v>
+        <v>98.98397895514466</v>
       </c>
       <c r="J12" t="n">
-        <v>157.0094275082584</v>
+        <v>213.5099334905642</v>
       </c>
       <c r="K12" t="n">
-        <v>474.4044141116469</v>
+        <v>357.2316360173066</v>
       </c>
       <c r="L12" t="n">
-        <v>667.6559795185616</v>
+        <v>550.4832014242214</v>
       </c>
       <c r="M12" t="n">
-        <v>893.1714412609606</v>
+        <v>775.9986631666204</v>
       </c>
       <c r="N12" t="n">
-        <v>1124.655626233481</v>
+        <v>1007.482848139141</v>
       </c>
       <c r="O12" t="n">
-        <v>1336.41843137698</v>
+        <v>1219.24565328264</v>
       </c>
       <c r="P12" t="n">
-        <v>1506.376751843322</v>
+        <v>1389.203973748982</v>
       </c>
       <c r="Q12" t="n">
-        <v>1619.989388134663</v>
+        <v>1502.816610040323</v>
       </c>
       <c r="R12" t="n">
         <v>1675.249849904187</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.200288522107</v>
+        <v>583.7594659921813</v>
       </c>
       <c r="C13" t="n">
-        <v>609.638577005332</v>
+        <v>583.7594659921813</v>
       </c>
       <c r="D13" t="n">
-        <v>443.7605842068547</v>
+        <v>417.881473193704</v>
       </c>
       <c r="E13" t="n">
-        <v>443.7605842068547</v>
+        <v>417.881473193704</v>
       </c>
       <c r="F13" t="n">
-        <v>267.0535301686109</v>
+        <v>241.1744191554602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4097045131013</v>
+        <v>241.1744191554602</v>
       </c>
       <c r="H13" t="n">
-        <v>42.27643571198264</v>
+        <v>108.0411503543415</v>
       </c>
       <c r="I13" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="J13" t="n">
-        <v>181.610933509268</v>
+        <v>95.03124834457816</v>
       </c>
       <c r="K13" t="n">
-        <v>543.0617508738419</v>
+        <v>268.0842942364989</v>
       </c>
       <c r="L13" t="n">
-        <v>1066.232642809627</v>
+        <v>379.02067147624</v>
       </c>
       <c r="M13" t="n">
-        <v>1183.199498181087</v>
+        <v>902.1915634120254</v>
       </c>
       <c r="N13" t="n">
-        <v>1297.38514316559</v>
+        <v>1425.362455347811</v>
       </c>
       <c r="O13" t="n">
-        <v>1432.833678448921</v>
+        <v>1948.533347283596</v>
       </c>
       <c r="P13" t="n">
-        <v>1870.587457756032</v>
+        <v>2038.780232620365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2101.262498167341</v>
+        <v>2101.262498167342</v>
       </c>
       <c r="R13" t="n">
-        <v>2113.821785599132</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="S13" t="n">
-        <v>1967.848302234355</v>
+        <v>1967.848302234356</v>
       </c>
       <c r="T13" t="n">
-        <v>1725.221806312809</v>
+        <v>1725.22180631281</v>
       </c>
       <c r="U13" t="n">
         <v>1446.830332593574</v>
       </c>
       <c r="V13" t="n">
-        <v>1446.830332593574</v>
+        <v>1159.874824464005</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.830332593574</v>
+        <v>1159.874824464005</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.438577926986</v>
+        <v>1002.99775539706</v>
       </c>
       <c r="Y13" t="n">
-        <v>974.0189072410942</v>
+        <v>775.5780847111685</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>476.0511805536875</v>
+        <v>1621.851610177648</v>
       </c>
       <c r="C14" t="n">
-        <v>476.0511805536875</v>
+        <v>1183.709137361071</v>
       </c>
       <c r="D14" t="n">
-        <v>476.0511805536875</v>
+        <v>747.7993525355157</v>
       </c>
       <c r="E14" t="n">
-        <v>42.27643571198264</v>
+        <v>314.0246076938109</v>
       </c>
       <c r="F14" t="n">
-        <v>42.27643571198264</v>
+        <v>314.0246076938109</v>
       </c>
       <c r="G14" t="n">
-        <v>42.27643571198264</v>
+        <v>314.0246076938109</v>
       </c>
       <c r="H14" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="I14" t="n">
         <v>105.9991273090973</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1846359241648</v>
+        <v>247.1846359241651</v>
       </c>
       <c r="K14" t="n">
-        <v>458.785114770615</v>
+        <v>458.7851147706153</v>
       </c>
       <c r="L14" t="n">
-        <v>721.2942197738965</v>
+        <v>721.294219773897</v>
       </c>
       <c r="M14" t="n">
         <v>1013.386179179549</v>
       </c>
       <c r="N14" t="n">
-        <v>1310.204491861126</v>
+        <v>1310.204491861127</v>
       </c>
       <c r="O14" t="n">
-        <v>1590.481607749925</v>
+        <v>1590.481607749926</v>
       </c>
       <c r="P14" t="n">
-        <v>1829.691641720764</v>
+        <v>1829.691641720765</v>
       </c>
       <c r="Q14" t="n">
-        <v>2009.328415086562</v>
+        <v>2009.328415086563</v>
       </c>
       <c r="R14" t="n">
-        <v>2113.821785599132</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="S14" t="n">
-        <v>2113.821785599132</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="T14" t="n">
-        <v>2113.821785599132</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="U14" t="n">
-        <v>2113.821785599132</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="V14" t="n">
-        <v>1751.204835532958</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="W14" t="n">
-        <v>1346.349380943992</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="X14" t="n">
-        <v>927.2069175233024</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="Y14" t="n">
-        <v>902.3507510385953</v>
+        <v>1705.535661898786</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>75.24165800695536</v>
       </c>
       <c r="H15" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="I15" t="n">
-        <v>72.92030579468702</v>
+        <v>98.98397895514466</v>
       </c>
       <c r="J15" t="n">
-        <v>213.5099334905645</v>
+        <v>183.0731006687161</v>
       </c>
       <c r="K15" t="n">
-        <v>357.2316360173068</v>
+        <v>326.7948031954584</v>
       </c>
       <c r="L15" t="n">
-        <v>550.4832014242215</v>
+        <v>520.0463686023733</v>
       </c>
       <c r="M15" t="n">
-        <v>775.9986631666205</v>
+        <v>745.5618303447723</v>
       </c>
       <c r="N15" t="n">
-        <v>1007.482848139141</v>
+        <v>977.0460153172929</v>
       </c>
       <c r="O15" t="n">
-        <v>1219.24565328264</v>
+        <v>1188.808820460792</v>
       </c>
       <c r="P15" t="n">
-        <v>1389.203973748982</v>
+        <v>1358.767140927134</v>
       </c>
       <c r="Q15" t="n">
         <v>1502.816610040323</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.0369946978163</v>
+        <v>561.3032050162642</v>
       </c>
       <c r="C16" t="n">
-        <v>242.4752831810412</v>
+        <v>388.7414934994892</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4752831810412</v>
+        <v>388.7414934994892</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4752831810412</v>
+        <v>218.9834897502265</v>
       </c>
       <c r="F16" t="n">
-        <v>65.76822914279742</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="G16" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="H16" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="I16" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198266</v>
       </c>
       <c r="J16" t="n">
-        <v>95.03124834457812</v>
+        <v>95.03124834457816</v>
       </c>
       <c r="K16" t="n">
         <v>181.7236111380165</v>
       </c>
       <c r="L16" t="n">
-        <v>628.5298639223108</v>
+        <v>379.02067147624</v>
       </c>
       <c r="M16" t="n">
-        <v>1151.700755858096</v>
+        <v>902.1915634120254</v>
       </c>
       <c r="N16" t="n">
-        <v>1674.871647793881</v>
+        <v>1425.362455347811</v>
       </c>
       <c r="O16" t="n">
-        <v>1780.340572419263</v>
+        <v>1948.533347283596</v>
       </c>
       <c r="P16" t="n">
-        <v>1870.587457756032</v>
+        <v>2038.780232620365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2101.262498167341</v>
+        <v>2101.262498167342</v>
       </c>
       <c r="R16" t="n">
-        <v>2113.821785599132</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="S16" t="n">
-        <v>1967.848302234355</v>
+        <v>2113.821785599133</v>
       </c>
       <c r="T16" t="n">
-        <v>1725.221806312809</v>
+        <v>1871.195289677586</v>
       </c>
       <c r="U16" t="n">
-        <v>1446.830332593574</v>
+        <v>1784.915161631009</v>
       </c>
       <c r="V16" t="n">
-        <v>1159.874824464004</v>
+        <v>1497.959653501439</v>
       </c>
       <c r="W16" t="n">
-        <v>887.8484200502955</v>
+        <v>1225.933249087731</v>
       </c>
       <c r="X16" t="n">
-        <v>642.456665383708</v>
+        <v>980.5414944211432</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.0369946978163</v>
+        <v>753.1218237352514</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1767.6299007681</v>
+        <v>887.5524191463993</v>
       </c>
       <c r="C17" t="n">
-        <v>1767.6299007681</v>
+        <v>887.5524191463993</v>
       </c>
       <c r="D17" t="n">
-        <v>1331.720115942544</v>
+        <v>887.5524191463993</v>
       </c>
       <c r="E17" t="n">
-        <v>897.9453711008391</v>
+        <v>887.5524191463993</v>
       </c>
       <c r="F17" t="n">
-        <v>731.4331615374354</v>
+        <v>459.684989555607</v>
       </c>
       <c r="G17" t="n">
-        <v>331.7325822124464</v>
+        <v>59.98441023061809</v>
       </c>
       <c r="H17" t="n">
         <v>59.98441023061809</v>
@@ -5518,13 +5518,13 @@
         <v>700.1472978957182</v>
       </c>
       <c r="K17" t="n">
-        <v>911.7477767421683</v>
+        <v>911.7477767421684</v>
       </c>
       <c r="L17" t="n">
         <v>1174.25688174545</v>
       </c>
       <c r="M17" t="n">
-        <v>1466.348841151102</v>
+        <v>1466.348841151103</v>
       </c>
       <c r="N17" t="n">
         <v>1763.16715383268</v>
@@ -5542,25 +5542,25 @@
         <v>2999.220511530904</v>
       </c>
       <c r="S17" t="n">
-        <v>2954.244768843929</v>
+        <v>2999.220511530904</v>
       </c>
       <c r="T17" t="n">
-        <v>2954.244768843929</v>
+        <v>2786.583005260466</v>
       </c>
       <c r="U17" t="n">
-        <v>2954.244768843929</v>
+        <v>2527.496482741622</v>
       </c>
       <c r="V17" t="n">
-        <v>2591.627818777756</v>
+        <v>2527.496482741622</v>
       </c>
       <c r="W17" t="n">
-        <v>2186.772364188789</v>
+        <v>2122.641028152656</v>
       </c>
       <c r="X17" t="n">
-        <v>1767.6299007681</v>
+        <v>1722.138113331654</v>
       </c>
       <c r="Y17" t="n">
-        <v>1767.6299007681</v>
+        <v>1313.851989631307</v>
       </c>
     </row>
     <row r="18">
@@ -5591,13 +5591,13 @@
         <v>59.98441023061809</v>
       </c>
       <c r="I18" t="n">
-        <v>90.62828031332246</v>
+        <v>116.6919534737801</v>
       </c>
       <c r="J18" t="n">
-        <v>174.7174020268938</v>
+        <v>231.2179080091993</v>
       </c>
       <c r="K18" t="n">
-        <v>374.9396105359418</v>
+        <v>374.9396105359417</v>
       </c>
       <c r="L18" t="n">
         <v>568.1911759428565</v>
@@ -5676,22 +5676,22 @@
         <v>199.3189080279034</v>
       </c>
       <c r="K19" t="n">
-        <v>560.7697253924773</v>
+        <v>478.5596947976493</v>
       </c>
       <c r="L19" t="n">
-        <v>1089.915984400179</v>
+        <v>1007.705953805352</v>
       </c>
       <c r="M19" t="n">
-        <v>1666.366706952553</v>
+        <v>1584.156676357725</v>
       </c>
       <c r="N19" t="n">
-        <v>2222.8111550947</v>
+        <v>2140.601124499872</v>
       </c>
       <c r="O19" t="n">
-        <v>2747.949328945863</v>
+        <v>2665.739298351035</v>
       </c>
       <c r="P19" t="n">
-        <v>2924.178958552136</v>
+        <v>2755.986183687804</v>
       </c>
       <c r="Q19" t="n">
         <v>2986.661224099113</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1605.485419179568</v>
+        <v>1795.678842305247</v>
       </c>
       <c r="C20" t="n">
-        <v>1167.342946362991</v>
+        <v>1357.536369488671</v>
       </c>
       <c r="D20" t="n">
-        <v>731.4331615374354</v>
+        <v>921.6265846631152</v>
       </c>
       <c r="E20" t="n">
-        <v>731.4331615374354</v>
+        <v>487.8518398214104</v>
       </c>
       <c r="F20" t="n">
-        <v>731.4331615374354</v>
+        <v>59.98441023061809</v>
       </c>
       <c r="G20" t="n">
-        <v>331.7325822124464</v>
+        <v>59.98441023061809</v>
       </c>
       <c r="H20" t="n">
         <v>59.98441023061809</v>
@@ -5752,52 +5752,52 @@
         <v>123.7071018277327</v>
       </c>
       <c r="J20" t="n">
-        <v>700.1472978957182</v>
+        <v>586.084575897342</v>
       </c>
       <c r="K20" t="n">
-        <v>911.7477767421683</v>
+        <v>797.6850547437923</v>
       </c>
       <c r="L20" t="n">
-        <v>1174.25688174545</v>
+        <v>1060.194159747074</v>
       </c>
       <c r="M20" t="n">
-        <v>1466.348841151102</v>
+        <v>1352.286119152726</v>
       </c>
       <c r="N20" t="n">
-        <v>1763.16715383268</v>
+        <v>1649.104431834304</v>
       </c>
       <c r="O20" t="n">
-        <v>2043.444269721479</v>
+        <v>1929.381547723103</v>
       </c>
       <c r="P20" t="n">
-        <v>2545.93630289948</v>
+        <v>2168.591581693942</v>
       </c>
       <c r="Q20" t="n">
-        <v>2725.573076265278</v>
+        <v>2894.727141018334</v>
       </c>
       <c r="R20" t="n">
         <v>2999.220511530904</v>
       </c>
       <c r="S20" t="n">
-        <v>2954.244768843929</v>
+        <v>2999.220511530904</v>
       </c>
       <c r="T20" t="n">
-        <v>2954.244768843929</v>
+        <v>2822.237769479231</v>
       </c>
       <c r="U20" t="n">
-        <v>2695.158246325086</v>
+        <v>2563.151246960388</v>
       </c>
       <c r="V20" t="n">
-        <v>2332.541296258913</v>
+        <v>2200.534296894214</v>
       </c>
       <c r="W20" t="n">
-        <v>2024.627882600257</v>
+        <v>1795.678842305247</v>
       </c>
       <c r="X20" t="n">
-        <v>1605.485419179568</v>
+        <v>1795.678842305247</v>
       </c>
       <c r="Y20" t="n">
-        <v>1605.485419179568</v>
+        <v>1795.678842305247</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1862.740302534434</v>
+        <v>556.4776154263523</v>
       </c>
       <c r="C21" t="n">
-        <v>1756.283841371077</v>
+        <v>450.0211542629946</v>
       </c>
       <c r="D21" t="n">
-        <v>1661.19355251763</v>
+        <v>354.9308654095478</v>
       </c>
       <c r="E21" t="n">
-        <v>1567.073137844583</v>
+        <v>260.8104507365015</v>
       </c>
       <c r="F21" t="n">
-        <v>1483.689299460745</v>
+        <v>177.4266123526631</v>
       </c>
       <c r="G21" t="n">
-        <v>1399.212319633673</v>
+        <v>92.9496325255908</v>
       </c>
       <c r="H21" t="n">
-        <v>1366.2470973387</v>
+        <v>59.98441023061809</v>
       </c>
       <c r="I21" t="n">
-        <v>1396.890967421404</v>
+        <v>116.6919534737801</v>
       </c>
       <c r="J21" t="n">
-        <v>1537.480595117283</v>
+        <v>231.2179080091993</v>
       </c>
       <c r="K21" t="n">
-        <v>1681.202297644025</v>
+        <v>374.9396105359417</v>
       </c>
       <c r="L21" t="n">
-        <v>1874.45386305094</v>
+        <v>568.1911759428565</v>
       </c>
       <c r="M21" t="n">
-        <v>2099.969324793339</v>
+        <v>793.7066376852555</v>
       </c>
       <c r="N21" t="n">
-        <v>2331.453509765859</v>
+        <v>1025.190822657776</v>
       </c>
       <c r="O21" t="n">
-        <v>2543.216314909358</v>
+        <v>1236.953627801275</v>
       </c>
       <c r="P21" t="n">
-        <v>2713.1746353757</v>
+        <v>1406.911948267617</v>
       </c>
       <c r="Q21" t="n">
-        <v>2826.787271667041</v>
+        <v>1520.524584558958</v>
       </c>
       <c r="R21" t="n">
-        <v>2999.220511530904</v>
+        <v>1692.957824422822</v>
       </c>
       <c r="S21" t="n">
-        <v>2952.632817203234</v>
+        <v>1646.370130095152</v>
       </c>
       <c r="T21" t="n">
-        <v>2826.114493728123</v>
+        <v>1519.851806620041</v>
       </c>
       <c r="U21" t="n">
-        <v>2649.837690800903</v>
+        <v>1343.575003692821</v>
       </c>
       <c r="V21" t="n">
-        <v>2450.720172862902</v>
+        <v>1144.457485754821</v>
       </c>
       <c r="W21" t="n">
-        <v>2265.397418596096</v>
+        <v>959.1347314880147</v>
       </c>
       <c r="X21" t="n">
-        <v>2110.529982834977</v>
+        <v>804.2672957268946</v>
       </c>
       <c r="Y21" t="n">
-        <v>1984.044203614197</v>
+        <v>677.7815165061154</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1108.617101910601</v>
+        <v>1108.617101910602</v>
       </c>
       <c r="C22" t="n">
-        <v>936.0553903938264</v>
+        <v>936.0553903938269</v>
       </c>
       <c r="D22" t="n">
         <v>770.1773975953492</v>
       </c>
       <c r="E22" t="n">
-        <v>600.4193938460865</v>
+        <v>600.4193938460866</v>
       </c>
       <c r="F22" t="n">
-        <v>423.7123398078427</v>
+        <v>423.7123398078428</v>
       </c>
       <c r="G22" t="n">
         <v>258.8823936740956</v>
@@ -5913,19 +5913,19 @@
         <v>199.3189080279034</v>
       </c>
       <c r="K22" t="n">
-        <v>560.7697253924773</v>
+        <v>286.0112708213418</v>
       </c>
       <c r="L22" t="n">
-        <v>671.7061026322184</v>
+        <v>815.1575298290441</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.156825184591</v>
+        <v>1391.608252381417</v>
       </c>
       <c r="N22" t="n">
-        <v>1793.09423052953</v>
+        <v>1948.052700523565</v>
       </c>
       <c r="O22" t="n">
-        <v>2318.232404380693</v>
+        <v>2473.190874374728</v>
       </c>
       <c r="P22" t="n">
         <v>2755.986183687804</v>
@@ -5937,7 +5937,7 @@
         <v>2999.220511530904</v>
       </c>
       <c r="S22" t="n">
-        <v>2853.247028166127</v>
+        <v>2853.247028166128</v>
       </c>
       <c r="T22" t="n">
         <v>2610.620532244581</v>
@@ -5946,13 +5946,13 @@
         <v>2332.229058525346</v>
       </c>
       <c r="V22" t="n">
-        <v>2045.273550395776</v>
+        <v>2045.273550395777</v>
       </c>
       <c r="W22" t="n">
         <v>1773.247145982068</v>
       </c>
       <c r="X22" t="n">
-        <v>1527.85539131548</v>
+        <v>1527.855391315481</v>
       </c>
       <c r="Y22" t="n">
         <v>1300.435720629589</v>
@@ -5992,22 +5992,22 @@
         <v>741.0821431165039</v>
       </c>
       <c r="K23" t="n">
-        <v>952.682621962954</v>
+        <v>1787.032913921132</v>
       </c>
       <c r="L23" t="n">
-        <v>1215.191726966236</v>
+        <v>2109.472481199909</v>
       </c>
       <c r="M23" t="n">
-        <v>2464.067513177358</v>
+        <v>2401.564440605561</v>
       </c>
       <c r="N23" t="n">
-        <v>3712.943299388481</v>
+        <v>2698.382753287139</v>
       </c>
       <c r="O23" t="n">
-        <v>4353.468529967929</v>
+        <v>2978.659869175938</v>
       </c>
       <c r="P23" t="n">
-        <v>4592.678563938768</v>
+        <v>4046.179777980173</v>
       </c>
       <c r="Q23" t="n">
         <v>4772.315337304565</v>
@@ -6071,22 +6071,22 @@
         <v>241.7159204081372</v>
       </c>
       <c r="K24" t="n">
-        <v>415.874455756728</v>
+        <v>385.4376229348796</v>
       </c>
       <c r="L24" t="n">
-        <v>609.1260211636427</v>
+        <v>578.6891883417944</v>
       </c>
       <c r="M24" t="n">
-        <v>834.6414829060417</v>
+        <v>804.2046500841935</v>
       </c>
       <c r="N24" t="n">
-        <v>1066.125667878562</v>
+        <v>1035.688835056714</v>
       </c>
       <c r="O24" t="n">
-        <v>1277.888473022061</v>
+        <v>1247.451640200213</v>
       </c>
       <c r="P24" t="n">
-        <v>1447.846793488403</v>
+        <v>1417.409960666555</v>
       </c>
       <c r="Q24" t="n">
         <v>1561.459429779744</v>
@@ -6150,13 +6150,13 @@
         <v>240.2537532486892</v>
       </c>
       <c r="K25" t="n">
-        <v>601.7045706132631</v>
+        <v>601.7045706132633</v>
       </c>
       <c r="L25" t="n">
-        <v>712.6409478530041</v>
+        <v>1130.850829620965</v>
       </c>
       <c r="M25" t="n">
-        <v>1289.091670405377</v>
+        <v>1277.584627608168</v>
       </c>
       <c r="N25" t="n">
         <v>1834.029075750316</v>
@@ -6223,7 +6223,7 @@
         <v>100.9192554514038</v>
       </c>
       <c r="I26" t="n">
-        <v>164.6419470485184</v>
+        <v>164.6419470485185</v>
       </c>
       <c r="J26" t="n">
         <v>741.0821431165039</v>
@@ -6235,22 +6235,22 @@
         <v>2049.542018924414</v>
       </c>
       <c r="M26" t="n">
-        <v>2401.564440605559</v>
+        <v>2341.633978330066</v>
       </c>
       <c r="N26" t="n">
-        <v>2698.382753287137</v>
+        <v>2638.452291011644</v>
       </c>
       <c r="O26" t="n">
-        <v>2978.659869175936</v>
+        <v>2978.659869175937</v>
       </c>
       <c r="P26" t="n">
-        <v>4046.179777980171</v>
+        <v>4046.179777980172</v>
       </c>
       <c r="Q26" t="n">
-        <v>4772.315337304563</v>
+        <v>4772.315337304564</v>
       </c>
       <c r="R26" t="n">
-        <v>5045.96277257019</v>
+        <v>5045.962772570191</v>
       </c>
       <c r="S26" t="n">
         <v>5000.987029883216</v>
@@ -6302,28 +6302,28 @@
         <v>100.9192554514038</v>
       </c>
       <c r="I27" t="n">
-        <v>131.5631255341082</v>
+        <v>157.6267986945658</v>
       </c>
       <c r="J27" t="n">
-        <v>215.6522472476796</v>
+        <v>241.7159204081372</v>
       </c>
       <c r="K27" t="n">
-        <v>359.3739497744219</v>
+        <v>385.4376229348796</v>
       </c>
       <c r="L27" t="n">
-        <v>552.6255151813366</v>
+        <v>578.6891883417944</v>
       </c>
       <c r="M27" t="n">
-        <v>778.1409769237356</v>
+        <v>804.2046500841935</v>
       </c>
       <c r="N27" t="n">
-        <v>1066.125667878562</v>
+        <v>1035.688835056714</v>
       </c>
       <c r="O27" t="n">
-        <v>1277.888473022061</v>
+        <v>1247.451640200213</v>
       </c>
       <c r="P27" t="n">
-        <v>1447.846793488403</v>
+        <v>1417.409960666555</v>
       </c>
       <c r="Q27" t="n">
         <v>1561.459429779744</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1149.551947131387</v>
+        <v>1149.551947131388</v>
       </c>
       <c r="C28" t="n">
-        <v>976.9902356146123</v>
+        <v>976.9902356146125</v>
       </c>
       <c r="D28" t="n">
-        <v>811.112242816135</v>
+        <v>811.1122428161352</v>
       </c>
       <c r="E28" t="n">
-        <v>641.3542390668723</v>
+        <v>641.3542390668724</v>
       </c>
       <c r="F28" t="n">
-        <v>464.6471850286285</v>
+        <v>464.6471850286286</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8172388948813</v>
+        <v>299.8172388948814</v>
       </c>
       <c r="H28" t="n">
-        <v>166.6839700937626</v>
+        <v>166.6839700937627</v>
       </c>
       <c r="I28" t="n">
         <v>100.9192554514038</v>
       </c>
       <c r="J28" t="n">
-        <v>240.2537532486891</v>
+        <v>240.2537532486892</v>
       </c>
       <c r="K28" t="n">
-        <v>601.7045706132631</v>
+        <v>340.1804209124255</v>
       </c>
       <c r="L28" t="n">
-        <v>1130.850829620965</v>
+        <v>869.3266799201277</v>
       </c>
       <c r="M28" t="n">
-        <v>1707.301552173338</v>
+        <v>1445.777402472501</v>
       </c>
       <c r="N28" t="n">
-        <v>2263.746000315486</v>
+        <v>2002.221850614648</v>
       </c>
       <c r="O28" t="n">
-        <v>2369.214924940868</v>
+        <v>2527.360024465812</v>
       </c>
       <c r="P28" t="n">
-        <v>2796.92102890859</v>
+        <v>2965.113803772922</v>
       </c>
       <c r="Q28" t="n">
         <v>3027.596069319899</v>
@@ -6426,7 +6426,7 @@
         <v>1814.181991202854</v>
       </c>
       <c r="X28" t="n">
-        <v>1568.790236536266</v>
+        <v>1568.790236536267</v>
       </c>
       <c r="Y28" t="n">
         <v>1341.370565850375</v>
@@ -6454,7 +6454,7 @@
         <v>772.3680067582209</v>
       </c>
       <c r="G29" t="n">
-        <v>372.6674274332318</v>
+        <v>372.6674274332321</v>
       </c>
       <c r="H29" t="n">
         <v>100.9192554514038</v>
@@ -6463,31 +6463,31 @@
         <v>164.6419470485185</v>
       </c>
       <c r="J29" t="n">
-        <v>305.827455663586</v>
+        <v>741.0821431165039</v>
       </c>
       <c r="K29" t="n">
-        <v>517.4279345100362</v>
+        <v>1787.032913921132</v>
       </c>
       <c r="L29" t="n">
-        <v>779.9370395133177</v>
+        <v>2049.542018924414</v>
       </c>
       <c r="M29" t="n">
-        <v>2028.81282572444</v>
+        <v>2341.633978330066</v>
       </c>
       <c r="N29" t="n">
-        <v>3277.688611935562</v>
+        <v>2638.452291011644</v>
       </c>
       <c r="O29" t="n">
-        <v>3806.969744009333</v>
+        <v>2978.659869175936</v>
       </c>
       <c r="P29" t="n">
-        <v>4046.179777980172</v>
+        <v>4046.179777980171</v>
       </c>
       <c r="Q29" t="n">
-        <v>4772.315337304564</v>
+        <v>4772.315337304563</v>
       </c>
       <c r="R29" t="n">
-        <v>5045.962772570191</v>
+        <v>5045.96277257019</v>
       </c>
       <c r="S29" t="n">
         <v>5000.987029883216</v>
@@ -6539,31 +6539,31 @@
         <v>100.9192554514038</v>
       </c>
       <c r="I30" t="n">
-        <v>131.5631255341082</v>
+        <v>157.6267986945658</v>
       </c>
       <c r="J30" t="n">
-        <v>215.6522472476796</v>
+        <v>272.1527532299853</v>
       </c>
       <c r="K30" t="n">
-        <v>359.3739497744219</v>
+        <v>415.8744557567276</v>
       </c>
       <c r="L30" t="n">
-        <v>552.6255151813366</v>
+        <v>609.1260211636425</v>
       </c>
       <c r="M30" t="n">
-        <v>778.1409769237356</v>
+        <v>834.6414829060415</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.625161896256</v>
+        <v>1066.125667878562</v>
       </c>
       <c r="O30" t="n">
-        <v>1221.387967039755</v>
+        <v>1277.888473022061</v>
       </c>
       <c r="P30" t="n">
-        <v>1391.346287506097</v>
+        <v>1447.846793488403</v>
       </c>
       <c r="Q30" t="n">
-        <v>1678.632207874084</v>
+        <v>1561.459429779744</v>
       </c>
       <c r="R30" t="n">
         <v>1733.892669643608</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1149.551947131388</v>
+        <v>1149.551947131387</v>
       </c>
       <c r="C31" t="n">
-        <v>976.9902356146125</v>
+        <v>976.9902356146123</v>
       </c>
       <c r="D31" t="n">
-        <v>811.1122428161352</v>
+        <v>811.112242816135</v>
       </c>
       <c r="E31" t="n">
-        <v>641.3542390668724</v>
+        <v>641.3542390668723</v>
       </c>
       <c r="F31" t="n">
-        <v>464.6471850286286</v>
+        <v>464.6471850286285</v>
       </c>
       <c r="G31" t="n">
-        <v>299.8172388948814</v>
+        <v>299.8172388948813</v>
       </c>
       <c r="H31" t="n">
-        <v>166.6839700937627</v>
+        <v>166.6839700937626</v>
       </c>
       <c r="I31" t="n">
         <v>100.9192554514038</v>
@@ -6624,22 +6624,22 @@
         <v>240.2537532486892</v>
       </c>
       <c r="K31" t="n">
-        <v>601.7045706132631</v>
+        <v>601.7045706132632</v>
       </c>
       <c r="L31" t="n">
         <v>1130.850829620965</v>
       </c>
       <c r="M31" t="n">
-        <v>1707.301552173338</v>
+        <v>1277.584627608168</v>
       </c>
       <c r="N31" t="n">
-        <v>2002.221850614648</v>
+        <v>1834.029075750316</v>
       </c>
       <c r="O31" t="n">
-        <v>2527.360024465812</v>
+        <v>2359.167249601479</v>
       </c>
       <c r="P31" t="n">
-        <v>2965.113803772922</v>
+        <v>2796.92102890859</v>
       </c>
       <c r="Q31" t="n">
         <v>3027.596069319899</v>
@@ -6663,7 +6663,7 @@
         <v>1814.181991202854</v>
       </c>
       <c r="X31" t="n">
-        <v>1568.790236536267</v>
+        <v>1568.790236536266</v>
       </c>
       <c r="Y31" t="n">
         <v>1341.370565850375</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2508.06243883285</v>
+        <v>2508.062438832851</v>
       </c>
       <c r="C32" t="n">
         <v>2069.919966016274</v>
       </c>
       <c r="D32" t="n">
-        <v>1634.010181190718</v>
+        <v>1634.010181190719</v>
       </c>
       <c r="E32" t="n">
-        <v>1200.235436349013</v>
+        <v>1200.235436349014</v>
       </c>
       <c r="F32" t="n">
-        <v>772.3680067582211</v>
+        <v>772.3680067582218</v>
       </c>
       <c r="G32" t="n">
-        <v>372.6674274332321</v>
+        <v>372.6674274332327</v>
       </c>
       <c r="H32" t="n">
         <v>100.9192554514038</v>
@@ -6700,52 +6700,52 @@
         <v>164.6419470485185</v>
       </c>
       <c r="J32" t="n">
-        <v>305.827455663586</v>
+        <v>741.0821431165039</v>
       </c>
       <c r="K32" t="n">
-        <v>1351.778226468214</v>
+        <v>952.6826219629542</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.287331471496</v>
+        <v>1969.18368571098</v>
       </c>
       <c r="M32" t="n">
-        <v>1906.379290877148</v>
+        <v>2261.275645116632</v>
       </c>
       <c r="N32" t="n">
-        <v>2698.382753287139</v>
+        <v>2558.09395779821</v>
       </c>
       <c r="O32" t="n">
-        <v>2978.659869175938</v>
+        <v>3806.969744009333</v>
       </c>
       <c r="P32" t="n">
-        <v>4046.179777980173</v>
+        <v>4046.179777980172</v>
       </c>
       <c r="Q32" t="n">
-        <v>4772.315337304565</v>
+        <v>4772.315337304564</v>
       </c>
       <c r="R32" t="n">
-        <v>5045.962772570192</v>
+        <v>5045.962772570191</v>
       </c>
       <c r="S32" t="n">
         <v>5000.987029883217</v>
       </c>
       <c r="T32" t="n">
-        <v>4788.349523612779</v>
+        <v>4788.349523612778</v>
       </c>
       <c r="U32" t="n">
-        <v>4529.263001093934</v>
+        <v>4529.263001093935</v>
       </c>
       <c r="V32" t="n">
-        <v>4166.64605102776</v>
+        <v>4166.646051027761</v>
       </c>
       <c r="W32" t="n">
-        <v>3761.790596438794</v>
+        <v>3761.790596438795</v>
       </c>
       <c r="X32" t="n">
         <v>3342.648133018105</v>
       </c>
       <c r="Y32" t="n">
-        <v>2934.362009317758</v>
+        <v>2934.362009317759</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>100.9192554514038</v>
       </c>
       <c r="I33" t="n">
-        <v>131.5631255341082</v>
+        <v>157.6267986945658</v>
       </c>
       <c r="J33" t="n">
-        <v>215.6522472476796</v>
+        <v>272.1527532299853</v>
       </c>
       <c r="K33" t="n">
-        <v>359.3739497744219</v>
+        <v>415.8744557567276</v>
       </c>
       <c r="L33" t="n">
-        <v>552.6255151813366</v>
+        <v>609.1260211636425</v>
       </c>
       <c r="M33" t="n">
-        <v>778.1409769237356</v>
+        <v>834.6414829060415</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.625161896256</v>
+        <v>1066.125667878562</v>
       </c>
       <c r="O33" t="n">
-        <v>1221.387967039755</v>
+        <v>1277.888473022061</v>
       </c>
       <c r="P33" t="n">
-        <v>1391.346287506097</v>
+        <v>1447.846793488403</v>
       </c>
       <c r="Q33" t="n">
         <v>1561.459429779744</v>
@@ -6861,13 +6861,13 @@
         <v>240.2537532486892</v>
       </c>
       <c r="K34" t="n">
-        <v>601.7045706132631</v>
+        <v>601.7045706132633</v>
       </c>
       <c r="L34" t="n">
-        <v>1130.850829620965</v>
+        <v>1048.640799026137</v>
       </c>
       <c r="M34" t="n">
-        <v>1625.091521578511</v>
+        <v>1625.09152157851</v>
       </c>
       <c r="N34" t="n">
         <v>2181.535969720658</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1146.706270797314</v>
+        <v>2119.903789988473</v>
       </c>
       <c r="C35" t="n">
-        <v>1146.706270797314</v>
+        <v>2028.985120795488</v>
       </c>
       <c r="D35" t="n">
-        <v>710.7964859717586</v>
+        <v>1593.075335969932</v>
       </c>
       <c r="E35" t="n">
-        <v>710.7964859717586</v>
+        <v>1159.300591128228</v>
       </c>
       <c r="F35" t="n">
-        <v>282.9290563809663</v>
+        <v>731.4331615374354</v>
       </c>
       <c r="G35" t="n">
-        <v>59.98441023061808</v>
+        <v>331.7325822124464</v>
       </c>
       <c r="H35" t="n">
         <v>59.98441023061808</v>
@@ -6937,22 +6937,22 @@
         <v>123.7071018277327</v>
       </c>
       <c r="J35" t="n">
-        <v>264.8926104428003</v>
+        <v>700.1472978957182</v>
       </c>
       <c r="K35" t="n">
-        <v>476.4930892892505</v>
+        <v>1175.02977594933</v>
       </c>
       <c r="L35" t="n">
-        <v>1218.800165893149</v>
+        <v>1437.538880952611</v>
       </c>
       <c r="M35" t="n">
-        <v>1510.892125298801</v>
+        <v>1729.630840358264</v>
       </c>
       <c r="N35" t="n">
-        <v>1807.710437980379</v>
+        <v>2026.449153039841</v>
       </c>
       <c r="O35" t="n">
-        <v>2087.987553869178</v>
+        <v>2306.72626892864</v>
       </c>
       <c r="P35" t="n">
         <v>2545.936302899479</v>
@@ -6970,19 +6970,19 @@
         <v>2741.607262573491</v>
       </c>
       <c r="U35" t="n">
-        <v>2741.607262573491</v>
+        <v>2482.520740054647</v>
       </c>
       <c r="V35" t="n">
-        <v>2378.990312507317</v>
+        <v>2119.903789988473</v>
       </c>
       <c r="W35" t="n">
-        <v>1974.13485791835</v>
+        <v>2119.903789988473</v>
       </c>
       <c r="X35" t="n">
-        <v>1554.992394497661</v>
+        <v>2119.903789988473</v>
       </c>
       <c r="Y35" t="n">
-        <v>1146.706270797314</v>
+        <v>2119.903789988473</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>116.6919534737801</v>
       </c>
       <c r="J36" t="n">
-        <v>200.7810751873514</v>
+        <v>231.2179080091993</v>
       </c>
       <c r="K36" t="n">
-        <v>344.5027777140937</v>
+        <v>374.9396105359417</v>
       </c>
       <c r="L36" t="n">
-        <v>537.7543431210084</v>
+        <v>568.1911759428565</v>
       </c>
       <c r="M36" t="n">
-        <v>763.2698048634074</v>
+        <v>793.7066376852555</v>
       </c>
       <c r="N36" t="n">
-        <v>994.7539898359281</v>
+        <v>1025.190822657776</v>
       </c>
       <c r="O36" t="n">
-        <v>1206.516794979427</v>
+        <v>1236.953627801275</v>
       </c>
       <c r="P36" t="n">
-        <v>1376.475115445769</v>
+        <v>1406.911948267617</v>
       </c>
       <c r="Q36" t="n">
-        <v>1637.697362653298</v>
+        <v>1520.524584558958</v>
       </c>
       <c r="R36" t="n">
         <v>1692.957824422822</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1108.617101910602</v>
+        <v>1108.617101910601</v>
       </c>
       <c r="C37" t="n">
-        <v>936.0553903938268</v>
+        <v>936.0553903938263</v>
       </c>
       <c r="D37" t="n">
-        <v>770.1773975953495</v>
+        <v>770.177397595349</v>
       </c>
       <c r="E37" t="n">
-        <v>600.4193938460867</v>
+        <v>600.4193938460862</v>
       </c>
       <c r="F37" t="n">
         <v>423.7123398078429</v>
@@ -7095,13 +7095,13 @@
         <v>59.98441023061808</v>
       </c>
       <c r="J37" t="n">
-        <v>112.7392228632136</v>
+        <v>199.3189080279034</v>
       </c>
       <c r="K37" t="n">
-        <v>474.1900402277875</v>
+        <v>560.7697253924774</v>
       </c>
       <c r="L37" t="n">
-        <v>660.1990598350094</v>
+        <v>1089.915984400179</v>
       </c>
       <c r="M37" t="n">
         <v>1236.649782387382</v>
@@ -7131,13 +7131,13 @@
         <v>2332.229058525346</v>
       </c>
       <c r="V37" t="n">
-        <v>2045.273550395777</v>
+        <v>2045.273550395776</v>
       </c>
       <c r="W37" t="n">
         <v>1773.247145982068</v>
       </c>
       <c r="X37" t="n">
-        <v>1527.855391315481</v>
+        <v>1527.85539131548</v>
       </c>
       <c r="Y37" t="n">
         <v>1300.435720629589</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1595.210375953783</v>
+        <v>1321.327163988104</v>
       </c>
       <c r="C38" t="n">
-        <v>1595.210375953783</v>
+        <v>1321.327163988104</v>
       </c>
       <c r="D38" t="n">
-        <v>1159.300591128228</v>
+        <v>1321.327163988104</v>
       </c>
       <c r="E38" t="n">
-        <v>1159.300591128228</v>
+        <v>887.5524191463993</v>
       </c>
       <c r="F38" t="n">
-        <v>731.4331615374354</v>
+        <v>459.684989555607</v>
       </c>
       <c r="G38" t="n">
-        <v>331.7325822124464</v>
+        <v>59.98441023061808</v>
       </c>
       <c r="H38" t="n">
         <v>59.98441023061808</v>
@@ -7174,25 +7174,25 @@
         <v>123.7071018277327</v>
       </c>
       <c r="J38" t="n">
-        <v>264.8926104428003</v>
+        <v>513.2141799046331</v>
       </c>
       <c r="K38" t="n">
-        <v>476.4930892892505</v>
+        <v>724.8146587510834</v>
       </c>
       <c r="L38" t="n">
-        <v>739.0021942925321</v>
+        <v>987.323763754365</v>
       </c>
       <c r="M38" t="n">
-        <v>1031.094153698184</v>
+        <v>1729.630840358264</v>
       </c>
       <c r="N38" t="n">
-        <v>1327.912466379762</v>
+        <v>2026.449153039841</v>
       </c>
       <c r="O38" t="n">
-        <v>1760.227482970046</v>
+        <v>2306.72626892864</v>
       </c>
       <c r="P38" t="n">
-        <v>1999.437516940885</v>
+        <v>2545.936302899479</v>
       </c>
       <c r="Q38" t="n">
         <v>2725.573076265277</v>
@@ -7201,25 +7201,25 @@
         <v>2999.220511530904</v>
       </c>
       <c r="S38" t="n">
-        <v>2999.220511530904</v>
+        <v>2954.244768843929</v>
       </c>
       <c r="T38" t="n">
-        <v>2786.583005260466</v>
+        <v>2741.607262573491</v>
       </c>
       <c r="U38" t="n">
-        <v>2527.496482741622</v>
+        <v>2482.520740054647</v>
       </c>
       <c r="V38" t="n">
-        <v>2426.365401027658</v>
+        <v>2119.903789988473</v>
       </c>
       <c r="W38" t="n">
-        <v>2021.509946438691</v>
+        <v>1715.048335399507</v>
       </c>
       <c r="X38" t="n">
-        <v>2021.509946438691</v>
+        <v>1715.048335399507</v>
       </c>
       <c r="Y38" t="n">
-        <v>2021.509946438691</v>
+        <v>1321.327163988104</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>59.98441023061808</v>
       </c>
       <c r="I39" t="n">
-        <v>90.62828031332246</v>
+        <v>116.6919534737801</v>
       </c>
       <c r="J39" t="n">
-        <v>174.7174020268938</v>
+        <v>231.2179080091993</v>
       </c>
       <c r="K39" t="n">
-        <v>318.4391045536362</v>
+        <v>374.9396105359417</v>
       </c>
       <c r="L39" t="n">
-        <v>511.6906699605509</v>
+        <v>568.1911759428565</v>
       </c>
       <c r="M39" t="n">
-        <v>737.2061317029498</v>
+        <v>793.7066376852555</v>
       </c>
       <c r="N39" t="n">
-        <v>968.6903166754706</v>
+        <v>1025.190822657776</v>
       </c>
       <c r="O39" t="n">
-        <v>1180.453121818969</v>
+        <v>1236.953627801275</v>
       </c>
       <c r="P39" t="n">
-        <v>1350.411442285311</v>
+        <v>1406.911948267617</v>
       </c>
       <c r="Q39" t="n">
         <v>1520.524584558958</v>
@@ -7311,16 +7311,16 @@
         <v>1108.617101910601</v>
       </c>
       <c r="C40" t="n">
-        <v>936.0553903938264</v>
+        <v>936.0553903938263</v>
       </c>
       <c r="D40" t="n">
-        <v>770.1773975953492</v>
+        <v>770.177397595349</v>
       </c>
       <c r="E40" t="n">
-        <v>600.4193938460865</v>
+        <v>600.4193938460867</v>
       </c>
       <c r="F40" t="n">
-        <v>423.7123398078427</v>
+        <v>423.7123398078429</v>
       </c>
       <c r="G40" t="n">
         <v>258.8823936740956</v>
@@ -7332,25 +7332,25 @@
         <v>59.98441023061808</v>
       </c>
       <c r="J40" t="n">
-        <v>112.7392228632136</v>
+        <v>199.3189080279034</v>
       </c>
       <c r="K40" t="n">
-        <v>199.4315856566519</v>
+        <v>560.7697253924774</v>
       </c>
       <c r="L40" t="n">
-        <v>728.577844664354</v>
+        <v>1079.868309060791</v>
       </c>
       <c r="M40" t="n">
-        <v>1305.028567216727</v>
+        <v>1656.319031613163</v>
       </c>
       <c r="N40" t="n">
-        <v>1861.473015358875</v>
+        <v>2212.763479755311</v>
       </c>
       <c r="O40" t="n">
-        <v>2386.611189210038</v>
+        <v>2318.232404380693</v>
       </c>
       <c r="P40" t="n">
-        <v>2824.364968517149</v>
+        <v>2755.986183687804</v>
       </c>
       <c r="Q40" t="n">
         <v>2986.661224099113</v>
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1611.576566951864</v>
+        <v>906.0536501283304</v>
       </c>
       <c r="C41" t="n">
-        <v>1611.576566951864</v>
+        <v>906.0536501283304</v>
       </c>
       <c r="D41" t="n">
-        <v>1175.666782126308</v>
+        <v>470.1438653027749</v>
       </c>
       <c r="E41" t="n">
-        <v>741.8920372846032</v>
+        <v>470.1438653027749</v>
       </c>
       <c r="F41" t="n">
-        <v>314.0246076938109</v>
+        <v>42.27643571198265</v>
       </c>
       <c r="G41" t="n">
-        <v>314.0246076938109</v>
+        <v>42.27643571198265</v>
       </c>
       <c r="H41" t="n">
-        <v>42.27643571198263</v>
+        <v>42.27643571198265</v>
       </c>
       <c r="I41" t="n">
-        <v>105.9991273090972</v>
+        <v>105.9991273090973</v>
       </c>
       <c r="J41" t="n">
-        <v>247.1846359241646</v>
+        <v>247.1846359241649</v>
       </c>
       <c r="K41" t="n">
-        <v>458.7851147706148</v>
+        <v>458.7851147706151</v>
       </c>
       <c r="L41" t="n">
-        <v>721.2942197738963</v>
+        <v>721.2942197738968</v>
       </c>
       <c r="M41" t="n">
         <v>1013.386179179549</v>
       </c>
       <c r="N41" t="n">
-        <v>1310.204491861126</v>
+        <v>1310.204491861127</v>
       </c>
       <c r="O41" t="n">
-        <v>1590.481607749925</v>
+        <v>1590.481607749926</v>
       </c>
       <c r="P41" t="n">
-        <v>1829.691641720764</v>
+        <v>1829.691641720765</v>
       </c>
       <c r="Q41" t="n">
         <v>2009.328415086562</v>
@@ -7438,25 +7438,25 @@
         <v>2113.821785599132</v>
       </c>
       <c r="S41" t="n">
-        <v>2068.846042912156</v>
+        <v>2113.821785599132</v>
       </c>
       <c r="T41" t="n">
-        <v>1856.208536641718</v>
+        <v>2113.821785599132</v>
       </c>
       <c r="U41" t="n">
-        <v>1856.208536641718</v>
+        <v>2113.821785599132</v>
       </c>
       <c r="V41" t="n">
-        <v>1856.208536641718</v>
+        <v>2113.821785599132</v>
       </c>
       <c r="W41" t="n">
-        <v>1856.208536641718</v>
+        <v>1733.482237249366</v>
       </c>
       <c r="X41" t="n">
-        <v>1611.576566951864</v>
+        <v>1314.339773828677</v>
       </c>
       <c r="Y41" t="n">
-        <v>1611.576566951864</v>
+        <v>906.0536501283304</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>538.7696409077168</v>
       </c>
       <c r="C42" t="n">
-        <v>432.3131797443591</v>
+        <v>432.3131797443592</v>
       </c>
       <c r="D42" t="n">
         <v>337.2228908909124</v>
@@ -7481,34 +7481,34 @@
         <v>159.7186378340277</v>
       </c>
       <c r="G42" t="n">
-        <v>75.24165800695535</v>
+        <v>75.24165800695536</v>
       </c>
       <c r="H42" t="n">
-        <v>42.27643571198263</v>
+        <v>42.27643571198265</v>
       </c>
       <c r="I42" t="n">
-        <v>72.92030579468701</v>
+        <v>72.92030579468704</v>
       </c>
       <c r="J42" t="n">
-        <v>330.6827115849048</v>
+        <v>330.6827115849039</v>
       </c>
       <c r="K42" t="n">
-        <v>474.4044141116471</v>
+        <v>474.4044141116463</v>
       </c>
       <c r="L42" t="n">
-        <v>667.6559795185618</v>
+        <v>667.6559795185611</v>
       </c>
       <c r="M42" t="n">
-        <v>893.1714412609608</v>
+        <v>893.1714412609601</v>
       </c>
       <c r="N42" t="n">
-        <v>1124.655626233482</v>
+        <v>1124.655626233481</v>
       </c>
       <c r="O42" t="n">
         <v>1336.41843137698</v>
       </c>
       <c r="P42" t="n">
-        <v>1506.376751843322</v>
+        <v>1506.376751843321</v>
       </c>
       <c r="Q42" t="n">
         <v>1619.989388134663</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>450.6380466647204</v>
+        <v>1090.909127391966</v>
       </c>
       <c r="C43" t="n">
-        <v>450.6380466647204</v>
+        <v>918.3474158751911</v>
       </c>
       <c r="D43" t="n">
-        <v>284.7600538662431</v>
+        <v>752.4694230767138</v>
       </c>
       <c r="E43" t="n">
-        <v>284.7600538662431</v>
+        <v>582.7114193274512</v>
       </c>
       <c r="F43" t="n">
-        <v>108.0529998279993</v>
+        <v>406.0043652892074</v>
       </c>
       <c r="G43" t="n">
-        <v>42.27643571198263</v>
+        <v>241.1744191554602</v>
       </c>
       <c r="H43" t="n">
-        <v>42.27643571198263</v>
+        <v>108.0411503543415</v>
       </c>
       <c r="I43" t="n">
-        <v>42.27643571198263</v>
+        <v>42.27643571198265</v>
       </c>
       <c r="J43" t="n">
         <v>181.610933509268</v>
       </c>
       <c r="K43" t="n">
-        <v>502.8462881917299</v>
+        <v>543.061750873842</v>
       </c>
       <c r="L43" t="n">
-        <v>1026.017180127515</v>
+        <v>1066.232642809627</v>
       </c>
       <c r="M43" t="n">
-        <v>1142.984035498975</v>
+        <v>1183.199498181087</v>
       </c>
       <c r="N43" t="n">
-        <v>1257.169680483478</v>
+        <v>1297.38514316559</v>
       </c>
       <c r="O43" t="n">
-        <v>1780.340572419263</v>
+        <v>1432.833678448922</v>
       </c>
       <c r="P43" t="n">
-        <v>1870.587457756031</v>
+        <v>1870.587457756032</v>
       </c>
       <c r="Q43" t="n">
-        <v>2101.26249816734</v>
+        <v>2101.262498167341</v>
       </c>
       <c r="R43" t="n">
         <v>2113.821785599132</v>
       </c>
       <c r="S43" t="n">
-        <v>1967.848302234355</v>
+        <v>1967.848302234356</v>
       </c>
       <c r="T43" t="n">
-        <v>1725.221806312808</v>
+        <v>1967.848302234356</v>
       </c>
       <c r="U43" t="n">
-        <v>1446.830332593573</v>
+        <v>1967.848302234356</v>
       </c>
       <c r="V43" t="n">
-        <v>1159.874824464003</v>
+        <v>1680.892794104786</v>
       </c>
       <c r="W43" t="n">
-        <v>887.8484200502951</v>
+        <v>1510.147416796845</v>
       </c>
       <c r="X43" t="n">
-        <v>642.4566653837076</v>
+        <v>1510.147416796845</v>
       </c>
       <c r="Y43" t="n">
-        <v>642.4566653837076</v>
+        <v>1282.727746110953</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>669.5936685658891</v>
+        <v>441.9770150369716</v>
       </c>
       <c r="C44" t="n">
-        <v>669.5936685658891</v>
+        <v>441.9770150369716</v>
       </c>
       <c r="D44" t="n">
-        <v>233.6838837403336</v>
+        <v>441.9770150369716</v>
       </c>
       <c r="E44" t="n">
-        <v>233.6838837403336</v>
+        <v>441.9770150369716</v>
       </c>
       <c r="F44" t="n">
-        <v>42.27643571198264</v>
+        <v>441.9770150369716</v>
       </c>
       <c r="G44" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198265</v>
       </c>
       <c r="H44" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198265</v>
       </c>
       <c r="I44" t="n">
-        <v>105.9991273090972</v>
+        <v>105.9991273090971</v>
       </c>
       <c r="J44" t="n">
-        <v>247.1846359241648</v>
+        <v>247.1846359241647</v>
       </c>
       <c r="K44" t="n">
-        <v>458.785114770615</v>
+        <v>458.7851147706149</v>
       </c>
       <c r="L44" t="n">
-        <v>721.2942197738965</v>
+        <v>721.2942197738967</v>
       </c>
       <c r="M44" t="n">
         <v>1013.386179179549</v>
@@ -7663,10 +7663,10 @@
         <v>1310.204491861126</v>
       </c>
       <c r="O44" t="n">
-        <v>1590.481607749925</v>
+        <v>1590.481607749926</v>
       </c>
       <c r="P44" t="n">
-        <v>1829.691641720764</v>
+        <v>1829.691641720765</v>
       </c>
       <c r="Q44" t="n">
         <v>2009.328415086562</v>
@@ -7678,22 +7678,22 @@
         <v>2068.846042912157</v>
       </c>
       <c r="T44" t="n">
-        <v>1856.208536641719</v>
+        <v>2068.846042912157</v>
       </c>
       <c r="U44" t="n">
-        <v>1856.208536641719</v>
+        <v>2068.846042912157</v>
       </c>
       <c r="V44" t="n">
-        <v>1493.591586575545</v>
+        <v>2068.846042912157</v>
       </c>
       <c r="W44" t="n">
-        <v>1088.736131986578</v>
+        <v>1663.990588323191</v>
       </c>
       <c r="X44" t="n">
-        <v>669.5936685658891</v>
+        <v>1244.848124902501</v>
       </c>
       <c r="Y44" t="n">
-        <v>669.5936685658891</v>
+        <v>836.5620012021546</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>75.24165800695536</v>
       </c>
       <c r="H45" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198265</v>
       </c>
       <c r="I45" t="n">
-        <v>98.98397895514464</v>
+        <v>98.98397895514465</v>
       </c>
       <c r="J45" t="n">
-        <v>183.073100668716</v>
+        <v>213.5099334905642</v>
       </c>
       <c r="K45" t="n">
-        <v>474.4044141116469</v>
+        <v>357.2316360173066</v>
       </c>
       <c r="L45" t="n">
-        <v>667.6559795185616</v>
+        <v>550.4832014242214</v>
       </c>
       <c r="M45" t="n">
-        <v>893.1714412609606</v>
+        <v>775.9986631666204</v>
       </c>
       <c r="N45" t="n">
-        <v>1124.655626233481</v>
+        <v>1007.482848139141</v>
       </c>
       <c r="O45" t="n">
-        <v>1336.41843137698</v>
+        <v>1219.24565328264</v>
       </c>
       <c r="P45" t="n">
-        <v>1506.376751843322</v>
+        <v>1389.203973748982</v>
       </c>
       <c r="Q45" t="n">
-        <v>1619.989388134663</v>
+        <v>1502.816610040323</v>
       </c>
       <c r="R45" t="n">
         <v>1675.249849904187</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.0369946978163</v>
+        <v>241.1744191554602</v>
       </c>
       <c r="C46" t="n">
-        <v>242.4752831810412</v>
+        <v>241.1744191554602</v>
       </c>
       <c r="D46" t="n">
-        <v>242.4752831810412</v>
+        <v>241.1744191554602</v>
       </c>
       <c r="E46" t="n">
-        <v>218.9834897502265</v>
+        <v>241.1744191554602</v>
       </c>
       <c r="F46" t="n">
-        <v>42.27643571198264</v>
+        <v>241.1744191554602</v>
       </c>
       <c r="G46" t="n">
-        <v>42.27643571198264</v>
+        <v>241.1744191554602</v>
       </c>
       <c r="H46" t="n">
-        <v>42.27643571198264</v>
+        <v>108.0411503543415</v>
       </c>
       <c r="I46" t="n">
-        <v>42.27643571198264</v>
+        <v>42.27643571198265</v>
       </c>
       <c r="J46" t="n">
-        <v>181.610933509268</v>
+        <v>95.03124834457815</v>
       </c>
       <c r="K46" t="n">
-        <v>268.3032963027063</v>
+        <v>456.4820657091521</v>
       </c>
       <c r="L46" t="n">
-        <v>791.4741882384914</v>
+        <v>979.6529576449374</v>
       </c>
       <c r="M46" t="n">
-        <v>908.4410436099513</v>
+        <v>1096.619813016397</v>
       </c>
       <c r="N46" t="n">
-        <v>1022.626688594454</v>
+        <v>1210.8054580009</v>
       </c>
       <c r="O46" t="n">
-        <v>1545.797580530239</v>
+        <v>1601.026453313254</v>
       </c>
       <c r="P46" t="n">
-        <v>1870.587457756032</v>
+        <v>2038.780232620364</v>
       </c>
       <c r="Q46" t="n">
         <v>2101.262498167341</v>
@@ -7833,25 +7833,25 @@
         <v>2113.821785599132</v>
       </c>
       <c r="S46" t="n">
-        <v>1967.848302234355</v>
+        <v>1967.848302234356</v>
       </c>
       <c r="T46" t="n">
-        <v>1725.221806312809</v>
+        <v>1743.17784948944</v>
       </c>
       <c r="U46" t="n">
-        <v>1446.830332593574</v>
+        <v>1464.786375770205</v>
       </c>
       <c r="V46" t="n">
-        <v>1159.874824464004</v>
+        <v>1177.830867640635</v>
       </c>
       <c r="W46" t="n">
-        <v>887.8484200502955</v>
+        <v>905.8044632269266</v>
       </c>
       <c r="X46" t="n">
-        <v>642.456665383708</v>
+        <v>660.4127085603391</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.0369946978163</v>
+        <v>432.9930378744473</v>
       </c>
     </row>
   </sheetData>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="K8" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>16.09231018481145</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="R8" t="n">
-        <v>16.0923101848114</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="J9" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>16.09231018481145</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.0923101848114</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>16.76988113996134</v>
+        <v>16.09231018481145</v>
       </c>
       <c r="P10" t="n">
-        <v>16.0923101848114</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>30.74427557762439</v>
       </c>
       <c r="K12" t="n">
-        <v>175.42755967338</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>87.23301323079025</v>
       </c>
       <c r="L13" t="n">
-        <v>416.3984996929738</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>410.3071076407327</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>413.1164110619012</v>
       </c>
       <c r="O13" t="n">
-        <v>30.28243500802978</v>
+        <v>421.9211791014175</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>57.07121816394556</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>30.74427557762442</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9090,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>339.2625005500538</v>
+        <v>87.23301323079022</v>
       </c>
       <c r="M16" t="n">
-        <v>410.3071076407326</v>
+        <v>410.3071076407327</v>
       </c>
       <c r="N16" t="n">
-        <v>413.1164110619011</v>
+        <v>413.1164110619012</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>421.9211791014175</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>30.74427557762408</v>
       </c>
       <c r="K18" t="n">
-        <v>57.0712181639451</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>194.4933575518257</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -9339,10 +9339,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>86.85125683788328</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>324.4363287419613</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>265.9414133405676</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>57.07121816394647</v>
+        <v>30.74427557762408</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
-        <v>435.1027882428648</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>194.4933575518257</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9640,25 +9640,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>60.53582048029784</v>
       </c>
       <c r="M23" t="n">
-        <v>966.4483099045156</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>961.6742156864093</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>363.8869845360091</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>30.74427557762476</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>30.74427557762419</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9801,13 +9801,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>30.06761880378076</v>
       </c>
       <c r="N25" t="n">
-        <v>435.1027882428648</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9883,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>60.53582048029648</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>57.07121816394556</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>30.74427557762419</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10035,7 +10035,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>13.36798471747255</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10047,13 +10047,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>340.8678976070237</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>966.4483099045153</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>961.6742156864088</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>251.5192082676481</v>
+        <v>60.53582048029557</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>30.74427557762425</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>175.4275596733798</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,10 +10278,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>30.06761880378099</v>
       </c>
       <c r="N31" t="n">
-        <v>182.5602560169768</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>761.6080391361054</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>500.18701992769</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>978.3824952750742</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>30.74427557762425</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.07121816394556</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10512,10 +10512,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>339.3937890637707</v>
       </c>
       <c r="M34" t="n">
-        <v>381.0846834202882</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>265.9414133405669</v>
       </c>
       <c r="L35" t="n">
-        <v>484.644415758199</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>220.9481970297602</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>30.74427557762408</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>149.1006170870587</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>75.83095188634422</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>30.06761880378053</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>250.8298681432654</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,19 +10831,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>454.7627446446933</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>153.5736370722072</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>30.74427557762408</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.07121816394533</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>412.2850569985576</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -10995,13 +10995,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>100.8222121565532</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>175.4275596733802</v>
+        <v>175.4275596733792</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>236.9121130192158</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>416.3984996929737</v>
+        <v>416.3984996929738</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11232,10 +11232,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>421.9211791014175</v>
+        <v>30.28243500802955</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>30.74427557762439</v>
       </c>
       <c r="K45" t="n">
-        <v>149.1006170870592</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>416.3984996929737</v>
+        <v>416.3984996929738</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>421.9211791014177</v>
+        <v>287.628354229264</v>
       </c>
       <c r="P46" t="n">
-        <v>236.9121130192159</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.266693640097344</v>
+        <v>5.266693640097287</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>16.99116694844952</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>19.16419577908601</v>
       </c>
       <c r="E8" t="n">
-        <v>12.66711625332641</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>7.805901676404453</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>277.3772334874835</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.5658086994232</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.703573531739</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>269.03069026201</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.52598526010514</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.5111312077339</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4956572936549</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>72.45425927345525</v>
+        <v>163.1816466724098</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>65.10706749593524</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>87.62953874364649</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>339.1893635761318</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>395.703573531739</v>
       </c>
       <c r="H14" t="n">
-        <v>269.03069026201</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.52598526010514</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T14" t="n">
         <v>210.5111312077339</v>
@@ -23554,16 +23554,16 @@
         <v>256.4956572936549</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>379.595657643483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.9247711759031</v>
+        <v>163.1816466724098</v>
       </c>
       <c r="H16" t="n">
         <v>131.8019361131075</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>144.513748531129</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>190.1902322159309</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>258.7416678271146</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>269.03069026201</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5111312077339</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4956572936549</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>18.45315311369006</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.703573531739</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>269.03069026201</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5111312077339</v>
+        <v>35.29821657657752</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>95.97262052100774</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>343.7515655873554</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>174.9883738428943</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>269.03069026201</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4956572936549</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>269.03069026201</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.52598526010514</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>258.8710096686867</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>14.41930276605456</v>
       </c>
     </row>
     <row r="39">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>395.703573531739</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>269.03069026201</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>44.52598526010512</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.5111312077339</v>
       </c>
       <c r="U41" t="n">
         <v>256.4956572936549</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>24.27074717680858</v>
       </c>
       <c r="X41" t="n">
-        <v>172.7653887935265</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.06284819755327</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.8019361131075</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>65.10706749593524</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.2002309623311</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6075589820427</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>100.2682168347098</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>31.3974384765275</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>234.0953817468169</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.703573531739</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>269.03069026201</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.5111312077339</v>
       </c>
       <c r="U44" t="n">
         <v>256.4956572936549</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>144.8035482152635</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.1816466724098</v>
       </c>
       <c r="H46" t="n">
-        <v>131.8019361131075</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>65.10706749593524</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.77648274486424</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>248023.7677309179</v>
+        <v>248023.767730918</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552803.5639597524</v>
+        <v>552803.5639597523</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552803.5639597524</v>
+        <v>552803.5639597523</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357809.1621685406</v>
+        <v>357809.1621685405</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>248023.7677309178</v>
+        <v>248023.7677309179</v>
       </c>
     </row>
     <row r="16">
@@ -26319,19 +26319,19 @@
         <v>497215.4012453022</v>
       </c>
       <c r="D2" t="n">
-        <v>502136.7927938305</v>
+        <v>502136.7927938306</v>
       </c>
       <c r="E2" t="n">
+        <v>274633.446162995</v>
+      </c>
+      <c r="F2" t="n">
         <v>274633.4461629949</v>
       </c>
-      <c r="F2" t="n">
-        <v>274633.4461629948</v>
-      </c>
       <c r="G2" t="n">
-        <v>359177.5886795351</v>
+        <v>359177.5886795352</v>
       </c>
       <c r="H2" t="n">
-        <v>359177.5886795351</v>
+        <v>359177.588679535</v>
       </c>
       <c r="I2" t="n">
         <v>509339.9538958883</v>
@@ -26343,19 +26343,19 @@
         <v>509339.9538958882</v>
       </c>
       <c r="L2" t="n">
-        <v>509339.9538958883</v>
+        <v>509339.9538958882</v>
       </c>
       <c r="M2" t="n">
-        <v>359177.5886795351</v>
+        <v>359177.5886795349</v>
       </c>
       <c r="N2" t="n">
         <v>359177.588679535</v>
       </c>
       <c r="O2" t="n">
-        <v>274633.4461629948</v>
+        <v>274633.446162995</v>
       </c>
       <c r="P2" t="n">
-        <v>274633.4461629948</v>
+        <v>274633.4461629949</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5209.228178506191</v>
+        <v>5209.22817850621</v>
       </c>
       <c r="E3" t="n">
-        <v>488576.0297409899</v>
+        <v>488576.0297409901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60668.62744925247</v>
+        <v>60668.6274492524</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4244.305987593939</v>
+        <v>4244.305987594028</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>300399.0159243877</v>
       </c>
       <c r="E4" t="n">
-        <v>17183.5732945516</v>
+        <v>17183.57329455159</v>
       </c>
       <c r="F4" t="n">
         <v>17183.57329455159</v>
       </c>
       <c r="G4" t="n">
-        <v>55910.10150413746</v>
+        <v>55910.10150413745</v>
       </c>
       <c r="H4" t="n">
-        <v>55910.10150413748</v>
+        <v>55910.10150413745</v>
       </c>
       <c r="I4" t="n">
-        <v>124693.8977491766</v>
+        <v>124693.8977491765</v>
       </c>
       <c r="J4" t="n">
         <v>124693.8977491765</v>
       </c>
       <c r="K4" t="n">
-        <v>124693.8977491765</v>
+        <v>124693.8977491764</v>
       </c>
       <c r="L4" t="n">
         <v>124693.8977491765</v>
       </c>
       <c r="M4" t="n">
-        <v>55910.10150413746</v>
+        <v>55910.10150413742</v>
       </c>
       <c r="N4" t="n">
-        <v>55910.10150413746</v>
+        <v>55910.10150413742</v>
       </c>
       <c r="O4" t="n">
-        <v>17183.5732945516</v>
+        <v>17183.57329455158</v>
       </c>
       <c r="P4" t="n">
-        <v>17183.5732945516</v>
+        <v>17183.57329455158</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>34647.20877330965</v>
       </c>
       <c r="E5" t="n">
-        <v>41241.82696908253</v>
+        <v>41241.82696908254</v>
       </c>
       <c r="F5" t="n">
-        <v>41241.82696908253</v>
+        <v>41241.82696908254</v>
       </c>
       <c r="G5" t="n">
-        <v>54699.88760324546</v>
+        <v>54699.88760324547</v>
       </c>
       <c r="H5" t="n">
-        <v>54699.88760324546</v>
+        <v>54699.88760324547</v>
       </c>
       <c r="I5" t="n">
         <v>85810.36997104263</v>
       </c>
       <c r="J5" t="n">
+        <v>85810.36997104262</v>
+      </c>
+      <c r="K5" t="n">
         <v>85810.3699710426</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>85810.36997104262</v>
-      </c>
-      <c r="L5" t="n">
-        <v>85810.36997104263</v>
       </c>
       <c r="M5" t="n">
         <v>54699.88760324546</v>
@@ -26508,7 +26508,7 @@
         <v>54699.88760324546</v>
       </c>
       <c r="O5" t="n">
-        <v>41241.82696908251</v>
+        <v>41241.82696908253</v>
       </c>
       <c r="P5" t="n">
         <v>41241.82696908253</v>
@@ -26521,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="C6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="D6" t="n">
-        <v>161881.339917627</v>
+        <v>161862.3842305164</v>
       </c>
       <c r="E6" t="n">
-        <v>-272367.9838416291</v>
+        <v>-272985.6325461895</v>
       </c>
       <c r="F6" t="n">
-        <v>216208.0458993607</v>
+        <v>215590.3971948005</v>
       </c>
       <c r="G6" t="n">
-        <v>187898.9721228998</v>
+        <v>187503.8080039095</v>
       </c>
       <c r="H6" t="n">
-        <v>248567.5995721521</v>
+        <v>248172.4354531617</v>
       </c>
       <c r="I6" t="n">
         <v>162767.7489762121</v>
@@ -26551,19 +26551,19 @@
         <v>298835.6861756691</v>
       </c>
       <c r="L6" t="n">
-        <v>294591.3801880752</v>
+        <v>294591.3801880751</v>
       </c>
       <c r="M6" t="n">
-        <v>248567.5995721522</v>
+        <v>248172.4354531616</v>
       </c>
       <c r="N6" t="n">
-        <v>248567.5995721521</v>
+        <v>248172.4354531617</v>
       </c>
       <c r="O6" t="n">
-        <v>216208.0458993607</v>
+        <v>215590.3971948006</v>
       </c>
       <c r="P6" t="n">
-        <v>216208.0458993607</v>
+        <v>215590.3971948005</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="F3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="G3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="H3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="I3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="J3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="K3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="L3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="M3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="N3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="O3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="P3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="E4" t="n">
-        <v>528.455446399783</v>
+        <v>528.4554463997832</v>
       </c>
       <c r="F4" t="n">
-        <v>528.455446399783</v>
+        <v>528.4554463997832</v>
       </c>
       <c r="G4" t="n">
         <v>749.8051278827261</v>
@@ -26828,10 +26828,10 @@
         <v>749.805127882726</v>
       </c>
       <c r="O4" t="n">
-        <v>528.4554463997829</v>
+        <v>528.4554463997831</v>
       </c>
       <c r="P4" t="n">
-        <v>528.455446399783</v>
+        <v>528.4554463997831</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>417.9695333933815</v>
+        <v>417.9695333933817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="E4" t="n">
-        <v>511.6855652598217</v>
+        <v>511.6855652598218</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>221.3496814829431</v>
+        <v>221.3496814829429</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>16.76988113996127</v>
+        <v>16.76988113996163</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="M4" t="n">
-        <v>511.6855652598217</v>
+        <v>511.6855652598218</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>221.3496814829431</v>
+        <v>221.3496814829429</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>103.3209809290041</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>77.36950482495094</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>76.40932938635447</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>65.78011886003866</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>69.76032752840001</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>26.54738435387166</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610075</v>
+        <v>46.05100203613935</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>108.45104028861</v>
       </c>
     </row>
     <row r="10">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.1305513918359</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>156.0651830935294</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28028,7 +28028,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>123.7322412584512</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.433761941720494</v>
+        <v>4.433761941720437</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>140.8790738750219</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>226.6507708173679</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.3755928390715</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H11" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I11" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J11" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K11" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L11" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M11" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N11" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O11" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P11" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q11" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R11" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S11" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T11" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H12" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I12" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J12" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K12" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L12" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M12" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N12" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O12" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P12" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q12" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R12" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S12" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T12" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H13" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I13" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J13" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K13" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L13" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M13" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N13" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O13" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P13" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R13" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S13" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T13" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H14" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I14" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J14" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K14" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L14" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M14" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N14" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O14" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P14" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q14" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R14" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S14" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T14" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H15" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I15" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J15" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K15" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L15" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M15" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N15" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O15" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P15" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R15" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S15" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T15" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H16" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I16" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J16" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K16" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L16" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M16" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N16" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O16" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P16" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R16" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S16" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T16" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H17" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I17" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J17" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K17" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L17" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M17" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N17" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O17" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P17" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q17" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R17" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S17" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T17" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H18" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I18" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J18" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K18" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L18" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M18" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N18" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O18" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P18" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q18" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R18" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S18" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T18" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H19" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I19" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J19" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K19" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L19" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M19" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N19" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O19" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P19" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R19" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S19" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T19" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H20" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I20" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J20" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K20" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L20" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M20" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N20" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O20" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P20" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R20" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S20" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T20" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H21" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I21" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J21" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K21" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L21" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M21" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N21" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O21" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P21" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q21" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R21" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S21" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T21" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H22" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I22" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J22" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K22" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L22" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M22" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N22" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O22" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P22" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R22" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S22" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T22" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H23" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I23" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J23" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K23" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L23" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M23" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N23" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O23" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P23" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q23" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R23" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S23" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T23" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H24" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I24" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J24" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K24" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L24" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M24" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N24" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O24" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P24" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q24" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R24" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S24" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T24" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H25" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I25" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J25" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K25" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L25" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M25" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N25" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O25" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P25" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R25" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S25" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T25" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H26" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I26" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J26" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K26" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L26" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M26" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N26" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O26" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P26" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q26" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R26" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S26" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T26" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H27" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I27" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J27" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K27" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L27" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M27" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N27" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O27" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P27" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q27" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R27" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S27" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T27" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H28" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I28" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J28" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K28" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L28" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M28" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N28" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O28" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P28" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R28" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S28" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T28" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H29" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I29" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J29" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K29" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L29" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M29" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N29" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O29" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P29" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q29" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R29" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S29" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T29" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H30" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I30" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J30" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K30" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L30" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M30" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N30" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O30" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P30" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q30" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R30" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S30" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T30" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H31" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I31" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J31" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K31" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L31" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M31" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N31" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O31" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P31" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R31" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S31" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T31" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H32" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I32" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J32" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K32" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L32" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M32" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N32" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O32" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P32" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q32" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R32" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S32" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T32" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H33" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I33" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J33" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K33" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L33" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M33" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N33" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O33" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P33" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q33" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R33" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S33" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T33" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H34" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I34" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J34" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K34" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L34" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M34" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N34" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O34" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P34" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R34" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S34" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T34" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H35" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I35" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J35" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K35" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L35" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M35" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N35" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O35" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P35" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R35" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S35" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T35" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H36" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I36" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J36" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K36" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L36" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M36" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N36" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O36" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P36" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q36" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R36" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S36" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T36" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H37" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I37" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J37" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K37" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L37" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M37" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N37" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O37" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P37" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R37" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S37" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T37" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H38" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I38" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J38" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K38" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L38" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M38" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N38" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O38" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P38" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R38" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S38" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T38" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H39" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I39" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J39" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K39" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L39" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M39" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N39" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O39" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P39" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q39" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R39" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S39" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T39" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H40" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I40" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J40" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K40" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L40" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M40" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N40" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O40" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P40" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R40" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S40" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T40" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H41" t="n">
-        <v>17.20816274920589</v>
+        <v>17.2081627492059</v>
       </c>
       <c r="I41" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J41" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K41" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L41" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M41" t="n">
-        <v>295.0423832380325</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N41" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O41" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P41" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q41" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R41" t="n">
-        <v>105.548859103606</v>
+        <v>105.5488591036061</v>
       </c>
       <c r="S41" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T41" t="n">
-        <v>7.355423647957897</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.89902880767633</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H42" t="n">
-        <v>8.682725589926662</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I42" t="n">
-        <v>30.95340412394382</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J42" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K42" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L42" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M42" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N42" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O42" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P42" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q42" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R42" t="n">
-        <v>55.81864825204444</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S42" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T42" t="n">
-        <v>3.623716992344504</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0591466320839691</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7537155520208517</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H43" t="n">
-        <v>6.701216453421759</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I43" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J43" t="n">
-        <v>53.28768952787421</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K43" t="n">
-        <v>87.56804322569531</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L43" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M43" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N43" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O43" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P43" t="n">
-        <v>91.15847003714008</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.1133995424006</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R43" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S43" t="n">
-        <v>13.13520648385429</v>
+        <v>13.1352064838543</v>
       </c>
       <c r="T43" t="n">
-        <v>3.220420994998184</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.680279531229673</v>
+        <v>1.680279531229674</v>
       </c>
       <c r="H44" t="n">
         <v>17.2081627492059</v>
       </c>
       <c r="I44" t="n">
-        <v>64.77897662773204</v>
+        <v>64.77897662773206</v>
       </c>
       <c r="J44" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K44" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L44" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M44" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N44" t="n">
-        <v>299.8164774561389</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O44" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P44" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402413</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.4512862280785</v>
+        <v>181.4512862280786</v>
       </c>
       <c r="R44" t="n">
         <v>105.5488591036061</v>
       </c>
       <c r="S44" t="n">
-        <v>38.28936981789622</v>
+        <v>38.28936981789624</v>
       </c>
       <c r="T44" t="n">
-        <v>7.355423647957898</v>
+        <v>7.355423647957902</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1344223624983738</v>
+        <v>0.1344223624983739</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8990288076763301</v>
+        <v>0.8990288076763305</v>
       </c>
       <c r="H45" t="n">
-        <v>8.682725589926664</v>
+        <v>8.682725589926667</v>
       </c>
       <c r="I45" t="n">
-        <v>30.95340412394383</v>
+        <v>30.95340412394384</v>
       </c>
       <c r="J45" t="n">
-        <v>84.93850678138521</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K45" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L45" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M45" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N45" t="n">
-        <v>233.8224090631522</v>
+        <v>233.8224090631523</v>
       </c>
       <c r="O45" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P45" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q45" t="n">
-        <v>114.7602386781224</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R45" t="n">
-        <v>55.81864825204445</v>
+        <v>55.81864825204447</v>
       </c>
       <c r="S45" t="n">
-        <v>16.69906579170726</v>
+        <v>16.69906579170727</v>
       </c>
       <c r="T45" t="n">
-        <v>3.623716992344505</v>
+        <v>3.623716992344506</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05914663208396911</v>
+        <v>0.05914663208396913</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7537155520208518</v>
+        <v>0.7537155520208522</v>
       </c>
       <c r="H46" t="n">
-        <v>6.70121645342176</v>
+        <v>6.701216453421764</v>
       </c>
       <c r="I46" t="n">
-        <v>22.66628223713617</v>
+        <v>22.66628223713618</v>
       </c>
       <c r="J46" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K46" t="n">
-        <v>87.56804322569532</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L46" t="n">
-        <v>112.0569467068092</v>
+        <v>112.0569467068093</v>
       </c>
       <c r="M46" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N46" t="n">
         <v>115.3390353378819</v>
       </c>
       <c r="O46" t="n">
-        <v>106.5342672983655</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P46" t="n">
-        <v>91.15847003714009</v>
+        <v>91.15847003714012</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.11339954240061</v>
+        <v>63.11339954240064</v>
       </c>
       <c r="R46" t="n">
-        <v>33.88979200268302</v>
+        <v>33.88979200268304</v>
       </c>
       <c r="S46" t="n">
         <v>13.1352064838543</v>
       </c>
       <c r="T46" t="n">
-        <v>3.220420994998185</v>
+        <v>3.220420994998186</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0411117573829556</v>
+        <v>0.04111175738295562</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="K8" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>16.09231018481145</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="R8" t="n">
-        <v>16.0923101848114</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="J9" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>16.09231018481145</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.0923101848114</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16.76988113996134</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -35339,19 +35339,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>16.76988113996134</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>16.76988113996134</v>
+        <v>16.09231018481145</v>
       </c>
       <c r="P10" t="n">
-        <v>16.0923101848114</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>16.7698811399614</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J11" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K11" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L11" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M11" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N11" t="n">
         <v>299.816477456139</v>
       </c>
       <c r="O11" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P11" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402414</v>
       </c>
       <c r="Q11" t="n">
         <v>181.4512862280785</v>
       </c>
       <c r="R11" t="n">
-        <v>105.5488591036062</v>
+        <v>105.548859103606</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.95340412394383</v>
+        <v>57.28034671026465</v>
       </c>
       <c r="J12" t="n">
-        <v>84.93850678138521</v>
+        <v>115.6827823590097</v>
       </c>
       <c r="K12" t="n">
-        <v>320.6009965690793</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L12" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M12" t="n">
         <v>227.7933956993929</v>
@@ -35503,7 +35503,7 @@
         <v>233.8224090631522</v>
       </c>
       <c r="O12" t="n">
-        <v>213.9018233772713</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P12" t="n">
         <v>171.6750711781231</v>
@@ -35512,7 +35512,7 @@
         <v>114.7602386781225</v>
       </c>
       <c r="R12" t="n">
-        <v>55.81864825204434</v>
+        <v>174.1749897614786</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7419169669549</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K13" t="n">
-        <v>365.1018357217919</v>
+        <v>174.8010564564856</v>
       </c>
       <c r="L13" t="n">
-        <v>528.455446399783</v>
+        <v>112.0569467068092</v>
       </c>
       <c r="M13" t="n">
-        <v>118.1483387590504</v>
+        <v>528.4554463997832</v>
       </c>
       <c r="N13" t="n">
-        <v>115.3390353378818</v>
+        <v>528.4554463997832</v>
       </c>
       <c r="O13" t="n">
-        <v>136.8167023063954</v>
+        <v>528.4554463997831</v>
       </c>
       <c r="P13" t="n">
-        <v>442.175534653647</v>
+        <v>91.15847003714021</v>
       </c>
       <c r="Q13" t="n">
-        <v>233.0050913245543</v>
+        <v>63.11339954240066</v>
       </c>
       <c r="R13" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J14" t="n">
-        <v>142.6116248637046</v>
+        <v>142.6116248637048</v>
       </c>
       <c r="K14" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L14" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M14" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N14" t="n">
-        <v>299.8164774561388</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O14" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P14" t="n">
         <v>241.6262969402414</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.95340412394383</v>
+        <v>57.28034671026465</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0097249453308</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K15" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L15" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M15" t="n">
         <v>227.7933956993929</v>
@@ -35740,13 +35740,13 @@
         <v>233.8224090631522</v>
       </c>
       <c r="O15" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P15" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.7602386781225</v>
+        <v>145.5045142557469</v>
       </c>
       <c r="R15" t="n">
         <v>174.1749897614786</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.28768952787422</v>
+        <v>53.28768952787425</v>
       </c>
       <c r="K16" t="n">
-        <v>87.56804322569531</v>
+        <v>87.56804322569535</v>
       </c>
       <c r="L16" t="n">
-        <v>451.319447256863</v>
+        <v>199.2899599375995</v>
       </c>
       <c r="M16" t="n">
-        <v>528.455446399783</v>
+        <v>528.4554463997832</v>
       </c>
       <c r="N16" t="n">
-        <v>528.4554463997829</v>
+        <v>528.4554463997832</v>
       </c>
       <c r="O16" t="n">
-        <v>106.5342672983656</v>
+        <v>528.4554463997831</v>
       </c>
       <c r="P16" t="n">
         <v>91.15847003714021</v>
       </c>
       <c r="Q16" t="n">
-        <v>233.0050913245543</v>
+        <v>63.11339954240066</v>
       </c>
       <c r="R16" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J17" t="n">
         <v>582.2628243110964</v>
       </c>
       <c r="K17" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L17" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M17" t="n">
         <v>295.0423832380327</v>
@@ -35898,7 +35898,7 @@
         <v>299.816477456139</v>
       </c>
       <c r="O17" t="n">
-        <v>283.108197867474</v>
+        <v>283.1081978674738</v>
       </c>
       <c r="P17" t="n">
         <v>241.6262969402414</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>30.95340412394382</v>
+        <v>57.28034671026465</v>
       </c>
       <c r="J18" t="n">
-        <v>84.9385067813852</v>
+        <v>115.6827823590093</v>
       </c>
       <c r="K18" t="n">
-        <v>202.2446550596445</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L18" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M18" t="n">
         <v>227.7933956993929</v>
@@ -36044,28 +36044,28 @@
         <v>140.7419169669549</v>
       </c>
       <c r="K19" t="n">
-        <v>365.1018357217919</v>
+        <v>282.0614007775211</v>
       </c>
       <c r="L19" t="n">
         <v>534.4911707148508</v>
       </c>
       <c r="M19" t="n">
-        <v>582.2734571236092</v>
+        <v>582.2734571236091</v>
       </c>
       <c r="N19" t="n">
-        <v>562.0650991334824</v>
+        <v>562.0650991334826</v>
       </c>
       <c r="O19" t="n">
         <v>530.4425998496599</v>
       </c>
       <c r="P19" t="n">
-        <v>178.0097268750233</v>
+        <v>91.15847003713998</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.11339954240066</v>
+        <v>233.0050913245545</v>
       </c>
       <c r="R19" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J20" t="n">
-        <v>582.2628243110964</v>
+        <v>467.047953605666</v>
       </c>
       <c r="K20" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L20" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M20" t="n">
         <v>295.0423832380327</v>
@@ -36138,13 +36138,13 @@
         <v>283.108197867474</v>
       </c>
       <c r="P20" t="n">
-        <v>507.567710280809</v>
+        <v>241.6262969402414</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.4512862280785</v>
+        <v>733.4702619438308</v>
       </c>
       <c r="R20" t="n">
-        <v>276.4115507733604</v>
+        <v>105.548859103606</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30.95340412394376</v>
+        <v>57.28034671026465</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0097249453318</v>
+        <v>115.6827823590093</v>
       </c>
       <c r="K21" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L21" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M21" t="n">
         <v>227.7933956993929</v>
       </c>
       <c r="N21" t="n">
-        <v>233.822409063152</v>
+        <v>233.8224090631522</v>
       </c>
       <c r="O21" t="n">
-        <v>213.9018233772713</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P21" t="n">
-        <v>171.6750711781233</v>
+        <v>171.6750711781231</v>
       </c>
       <c r="Q21" t="n">
-        <v>114.7602386781223</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R21" t="n">
         <v>174.1749897614786</v>
@@ -36281,28 +36281,28 @@
         <v>140.7419169669549</v>
       </c>
       <c r="K22" t="n">
-        <v>365.1018357217919</v>
+        <v>87.56804322569536</v>
       </c>
       <c r="L22" t="n">
-        <v>112.0569467068092</v>
+        <v>534.4911707148508</v>
       </c>
       <c r="M22" t="n">
-        <v>582.273457123609</v>
+        <v>582.2734571236091</v>
       </c>
       <c r="N22" t="n">
-        <v>550.4418235807466</v>
+        <v>562.0650991334826</v>
       </c>
       <c r="O22" t="n">
         <v>530.4425998496599</v>
       </c>
       <c r="P22" t="n">
-        <v>442.175534653647</v>
+        <v>285.6518275889657</v>
       </c>
       <c r="Q22" t="n">
         <v>233.0050913245545</v>
       </c>
       <c r="R22" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J23" t="n">
         <v>582.2628243110964</v>
       </c>
       <c r="K23" t="n">
-        <v>213.7378574206567</v>
+        <v>1056.515930105685</v>
       </c>
       <c r="L23" t="n">
-        <v>265.1607121245269</v>
+        <v>325.6965326048248</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.490693142548</v>
+        <v>295.0423832380325</v>
       </c>
       <c r="N23" t="n">
-        <v>1261.490693142548</v>
+        <v>299.8164774561392</v>
       </c>
       <c r="O23" t="n">
-        <v>646.9951824034829</v>
+        <v>283.1081978674738</v>
       </c>
       <c r="P23" t="n">
-        <v>241.6262969402414</v>
+        <v>1078.302938186096</v>
       </c>
       <c r="Q23" t="n">
-        <v>181.4512862280781</v>
+        <v>733.4702619438308</v>
       </c>
       <c r="R23" t="n">
         <v>276.4115507733604</v>
@@ -36436,28 +36436,28 @@
         <v>57.28034671026464</v>
       </c>
       <c r="J24" t="n">
-        <v>84.9385067813852</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K24" t="n">
-        <v>175.9177124733241</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L24" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M24" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N24" t="n">
         <v>233.8224090631522</v>
       </c>
       <c r="O24" t="n">
-        <v>213.9018233772713</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P24" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q24" t="n">
-        <v>114.7602386781225</v>
+        <v>145.5045142557467</v>
       </c>
       <c r="R24" t="n">
         <v>174.1749897614786</v>
@@ -36518,16 +36518,16 @@
         <v>140.7419169669549</v>
       </c>
       <c r="K25" t="n">
-        <v>365.1018357217918</v>
+        <v>365.101835721792</v>
       </c>
       <c r="L25" t="n">
-        <v>112.0569467068092</v>
+        <v>534.4911707148508</v>
       </c>
       <c r="M25" t="n">
-        <v>582.273457123609</v>
+        <v>148.2159575628311</v>
       </c>
       <c r="N25" t="n">
-        <v>550.4418235807466</v>
+        <v>562.0650991334826</v>
       </c>
       <c r="O25" t="n">
         <v>530.4425998496599</v>
@@ -36539,7 +36539,7 @@
         <v>233.0050913245545</v>
       </c>
       <c r="R25" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J26" t="n">
         <v>582.2628243110964</v>
@@ -36603,13 +36603,13 @@
         <v>265.160712124527</v>
       </c>
       <c r="M26" t="n">
-        <v>355.578203718329</v>
+        <v>295.0423832380329</v>
       </c>
       <c r="N26" t="n">
-        <v>299.8164774561387</v>
+        <v>299.8164774561392</v>
       </c>
       <c r="O26" t="n">
-        <v>283.1081978674738</v>
+        <v>343.6440183477703</v>
       </c>
       <c r="P26" t="n">
         <v>1078.302938186096</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>30.95340412394384</v>
+        <v>57.28034671026465</v>
       </c>
       <c r="J27" t="n">
-        <v>84.93850678138523</v>
+        <v>84.93850678138526</v>
       </c>
       <c r="K27" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L27" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M27" t="n">
-        <v>227.7933956993929</v>
+        <v>227.793395699393</v>
       </c>
       <c r="N27" t="n">
-        <v>290.8936272270978</v>
+        <v>233.8224090631522</v>
       </c>
       <c r="O27" t="n">
-        <v>213.9018233772713</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P27" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q27" t="n">
-        <v>114.7602386781225</v>
+        <v>145.5045142557467</v>
       </c>
       <c r="R27" t="n">
         <v>174.1749897614786</v>
@@ -36755,28 +36755,28 @@
         <v>140.7419169669549</v>
       </c>
       <c r="K28" t="n">
-        <v>365.1018357217919</v>
+        <v>100.9360279431679</v>
       </c>
       <c r="L28" t="n">
         <v>534.4911707148508</v>
       </c>
       <c r="M28" t="n">
-        <v>582.2734571236092</v>
+        <v>582.2734571236091</v>
       </c>
       <c r="N28" t="n">
-        <v>562.0650991334824</v>
+        <v>562.0650991334826</v>
       </c>
       <c r="O28" t="n">
-        <v>106.5342672983656</v>
+        <v>530.4425998496599</v>
       </c>
       <c r="P28" t="n">
-        <v>432.0263676441637</v>
+        <v>442.175534653647</v>
       </c>
       <c r="Q28" t="n">
-        <v>233.0050913245545</v>
+        <v>63.11339954240066</v>
       </c>
       <c r="R28" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J29" t="n">
-        <v>142.6116248637046</v>
+        <v>582.2628243110964</v>
       </c>
       <c r="K29" t="n">
-        <v>213.7378574206567</v>
+        <v>1056.515930105685</v>
       </c>
       <c r="L29" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.490693142548</v>
+        <v>295.0423832380329</v>
       </c>
       <c r="N29" t="n">
-        <v>1261.490693142548</v>
+        <v>299.8164774561392</v>
       </c>
       <c r="O29" t="n">
-        <v>534.6274061351219</v>
+        <v>343.6440183477694</v>
       </c>
       <c r="P29" t="n">
-        <v>241.6262969402414</v>
+        <v>1078.302938186096</v>
       </c>
       <c r="Q29" t="n">
         <v>733.4702619438308</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>30.95340412394383</v>
+        <v>57.28034671026467</v>
       </c>
       <c r="J30" t="n">
-        <v>84.93850678138523</v>
+        <v>115.6827823590095</v>
       </c>
       <c r="K30" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L30" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M30" t="n">
         <v>227.7933956993929</v>
@@ -36925,16 +36925,16 @@
         <v>233.8224090631522</v>
       </c>
       <c r="O30" t="n">
-        <v>213.9018233772713</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P30" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q30" t="n">
-        <v>290.1877983515024</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R30" t="n">
-        <v>55.81864825204434</v>
+        <v>174.1749897614786</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,16 +36992,16 @@
         <v>140.7419169669549</v>
       </c>
       <c r="K31" t="n">
-        <v>365.1018357217918</v>
+        <v>365.1018357217919</v>
       </c>
       <c r="L31" t="n">
-        <v>534.4911707148508</v>
+        <v>534.4911707148507</v>
       </c>
       <c r="M31" t="n">
-        <v>582.2734571236092</v>
+        <v>148.2159575628314</v>
       </c>
       <c r="N31" t="n">
-        <v>297.8992913548586</v>
+        <v>562.0650991334826</v>
       </c>
       <c r="O31" t="n">
         <v>530.4425998496599</v>
@@ -37010,10 +37010,10 @@
         <v>442.175534653647</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.11339954240066</v>
+        <v>233.0050913245545</v>
       </c>
       <c r="R31" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J32" t="n">
-        <v>142.6116248637046</v>
+        <v>582.2628243110964</v>
       </c>
       <c r="K32" t="n">
-        <v>1056.515930105685</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L32" t="n">
-        <v>265.160712124527</v>
+        <v>1026.768751260632</v>
       </c>
       <c r="M32" t="n">
-        <v>295.0423832380325</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N32" t="n">
-        <v>800.0034973838287</v>
+        <v>299.8164774561392</v>
       </c>
       <c r="O32" t="n">
-        <v>283.1081978674738</v>
+        <v>1261.490693142548</v>
       </c>
       <c r="P32" t="n">
-        <v>1078.302938186096</v>
+        <v>241.6262969402414</v>
       </c>
       <c r="Q32" t="n">
         <v>733.4702619438308</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>30.95340412394381</v>
+        <v>57.28034671026465</v>
       </c>
       <c r="J33" t="n">
-        <v>84.93850678138523</v>
+        <v>115.6827823590095</v>
       </c>
       <c r="K33" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L33" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M33" t="n">
         <v>227.7933956993929</v>
@@ -37162,13 +37162,13 @@
         <v>233.8224090631522</v>
       </c>
       <c r="O33" t="n">
-        <v>213.9018233772713</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P33" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q33" t="n">
-        <v>171.8314568420681</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R33" t="n">
         <v>174.1749897614786</v>
@@ -37229,16 +37229,16 @@
         <v>140.7419169669549</v>
       </c>
       <c r="K34" t="n">
-        <v>365.1018357217918</v>
+        <v>365.101835721792</v>
       </c>
       <c r="L34" t="n">
-        <v>534.4911707148508</v>
+        <v>451.45073577058</v>
       </c>
       <c r="M34" t="n">
-        <v>499.2330221793386</v>
+        <v>582.273457123609</v>
       </c>
       <c r="N34" t="n">
-        <v>562.0650991334824</v>
+        <v>562.0650991334826</v>
       </c>
       <c r="O34" t="n">
         <v>530.4425998496599</v>
@@ -37250,7 +37250,7 @@
         <v>233.0050913245545</v>
       </c>
       <c r="R34" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J35" t="n">
-        <v>142.6116248637046</v>
+        <v>582.2628243110964</v>
       </c>
       <c r="K35" t="n">
-        <v>213.7378574206567</v>
+        <v>479.6792707612237</v>
       </c>
       <c r="L35" t="n">
-        <v>749.8051278827259</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M35" t="n">
-        <v>295.0423832380325</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N35" t="n">
         <v>299.816477456139</v>
@@ -37323,7 +37323,7 @@
         <v>283.108197867474</v>
       </c>
       <c r="P35" t="n">
-        <v>462.5744939700016</v>
+        <v>241.6262969402414</v>
       </c>
       <c r="Q35" t="n">
         <v>181.4512862280785</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>57.28034671026464</v>
+        <v>57.28034671026465</v>
       </c>
       <c r="J36" t="n">
-        <v>84.93850678138521</v>
+        <v>115.6827823590093</v>
       </c>
       <c r="K36" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L36" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M36" t="n">
         <v>227.7933956993929</v>
@@ -37399,16 +37399,16 @@
         <v>233.8224090631522</v>
       </c>
       <c r="O36" t="n">
-        <v>213.9018233772714</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P36" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q36" t="n">
-        <v>263.8608557651812</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R36" t="n">
-        <v>55.81864825204434</v>
+        <v>174.1749897614786</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>53.28768952787422</v>
+        <v>140.7419169669549</v>
       </c>
       <c r="K37" t="n">
         <v>365.1018357217919</v>
       </c>
       <c r="L37" t="n">
-        <v>187.8878985931535</v>
+        <v>534.4911707148507</v>
       </c>
       <c r="M37" t="n">
-        <v>582.2734571236091</v>
+        <v>148.2159575628309</v>
       </c>
       <c r="N37" t="n">
-        <v>562.0650991334824</v>
+        <v>562.0650991334826</v>
       </c>
       <c r="O37" t="n">
         <v>530.4425998496599</v>
@@ -37487,7 +37487,7 @@
         <v>233.0050913245545</v>
       </c>
       <c r="R37" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J38" t="n">
-        <v>142.6116248637046</v>
+        <v>393.4414930069701</v>
       </c>
       <c r="K38" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L38" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M38" t="n">
-        <v>295.0423832380326</v>
+        <v>749.805127882726</v>
       </c>
       <c r="N38" t="n">
         <v>299.816477456139</v>
       </c>
       <c r="O38" t="n">
-        <v>436.681834939681</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P38" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402414</v>
       </c>
       <c r="Q38" t="n">
-        <v>733.4702619438308</v>
+        <v>181.4512862280785</v>
       </c>
       <c r="R38" t="n">
         <v>276.4115507733604</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>30.95340412394383</v>
+        <v>57.28034671026465</v>
       </c>
       <c r="J39" t="n">
-        <v>84.9385067813852</v>
+        <v>115.6827823590093</v>
       </c>
       <c r="K39" t="n">
         <v>145.1734368956994</v>
       </c>
       <c r="L39" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M39" t="n">
         <v>227.7933956993929</v>
@@ -37636,13 +37636,13 @@
         <v>233.8224090631522</v>
       </c>
       <c r="O39" t="n">
-        <v>213.9018233772713</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P39" t="n">
         <v>171.6750711781231</v>
       </c>
       <c r="Q39" t="n">
-        <v>171.8314568420678</v>
+        <v>114.7602386781225</v>
       </c>
       <c r="R39" t="n">
         <v>174.1749897614786</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>53.28768952787422</v>
+        <v>140.7419169669549</v>
       </c>
       <c r="K40" t="n">
-        <v>87.56804322569532</v>
+        <v>365.1018357217919</v>
       </c>
       <c r="L40" t="n">
-        <v>534.4911707148506</v>
+        <v>524.3420037053669</v>
       </c>
       <c r="M40" t="n">
-        <v>582.2734571236092</v>
+        <v>582.273457123609</v>
       </c>
       <c r="N40" t="n">
-        <v>562.0650991334824</v>
+        <v>562.0650991334826</v>
       </c>
       <c r="O40" t="n">
-        <v>530.4425998496599</v>
+        <v>106.5342672983656</v>
       </c>
       <c r="P40" t="n">
         <v>442.175534653647</v>
       </c>
       <c r="Q40" t="n">
-        <v>163.9356116989538</v>
+        <v>233.0050913245545</v>
       </c>
       <c r="R40" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J41" t="n">
-        <v>142.6116248637045</v>
+        <v>142.6116248637047</v>
       </c>
       <c r="K41" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L41" t="n">
-        <v>265.1607121245269</v>
+        <v>265.160712124527</v>
       </c>
       <c r="M41" t="n">
-        <v>295.0423832380326</v>
+        <v>295.0423832380327</v>
       </c>
       <c r="N41" t="n">
-        <v>299.8164774561388</v>
+        <v>299.816477456139</v>
       </c>
       <c r="O41" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P41" t="n">
         <v>241.6262969402412</v>
@@ -37858,13 +37858,13 @@
         <v>30.95340412394383</v>
       </c>
       <c r="J42" t="n">
-        <v>260.3660664547655</v>
+        <v>260.3660664547645</v>
       </c>
       <c r="K42" t="n">
-        <v>145.1734368956993</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L42" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M42" t="n">
         <v>227.7933956993929</v>
@@ -37873,7 +37873,7 @@
         <v>233.8224090631522</v>
       </c>
       <c r="O42" t="n">
-        <v>213.9018233772713</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P42" t="n">
         <v>171.6750711781231</v>
@@ -37882,7 +37882,7 @@
         <v>114.7602386781225</v>
       </c>
       <c r="R42" t="n">
-        <v>55.81864825204434</v>
+        <v>55.81864825204457</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,28 +37940,28 @@
         <v>140.7419169669549</v>
       </c>
       <c r="K43" t="n">
-        <v>324.4801562449111</v>
+        <v>365.1018357217919</v>
       </c>
       <c r="L43" t="n">
-        <v>528.4554463997829</v>
+        <v>528.4554463997831</v>
       </c>
       <c r="M43" t="n">
         <v>118.1483387590504</v>
       </c>
       <c r="N43" t="n">
-        <v>115.3390353378818</v>
+        <v>115.339035337882</v>
       </c>
       <c r="O43" t="n">
-        <v>528.4554463997829</v>
+        <v>136.8167023063952</v>
       </c>
       <c r="P43" t="n">
-        <v>91.15847003713998</v>
+        <v>442.175534653647</v>
       </c>
       <c r="Q43" t="n">
-        <v>233.0050913245543</v>
+        <v>233.0050913245545</v>
       </c>
       <c r="R43" t="n">
-        <v>12.68614892100118</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>64.36635514860063</v>
+        <v>64.36635514860066</v>
       </c>
       <c r="J44" t="n">
         <v>142.6116248637047</v>
       </c>
       <c r="K44" t="n">
-        <v>213.7378574206567</v>
+        <v>213.7378574206568</v>
       </c>
       <c r="L44" t="n">
-        <v>265.1607121245269</v>
+        <v>265.1607121245271</v>
       </c>
       <c r="M44" t="n">
-        <v>295.0423832380325</v>
+        <v>295.0423832380326</v>
       </c>
       <c r="N44" t="n">
         <v>299.816477456139</v>
       </c>
       <c r="O44" t="n">
-        <v>283.1081978674738</v>
+        <v>283.108197867474</v>
       </c>
       <c r="P44" t="n">
-        <v>241.6262969402412</v>
+        <v>241.6262969402414</v>
       </c>
       <c r="Q44" t="n">
         <v>181.4512862280785</v>
       </c>
       <c r="R44" t="n">
-        <v>105.5488591036062</v>
+        <v>105.548859103606</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>57.28034671026464</v>
+        <v>57.28034671026465</v>
       </c>
       <c r="J45" t="n">
-        <v>84.93850678138523</v>
+        <v>115.6827823590097</v>
       </c>
       <c r="K45" t="n">
-        <v>294.2740539827585</v>
+        <v>145.1734368956994</v>
       </c>
       <c r="L45" t="n">
-        <v>195.203601421126</v>
+        <v>195.2036014211261</v>
       </c>
       <c r="M45" t="n">
         <v>227.7933956993929</v>
@@ -38110,7 +38110,7 @@
         <v>233.8224090631522</v>
       </c>
       <c r="O45" t="n">
-        <v>213.9018233772713</v>
+        <v>213.9018233772715</v>
       </c>
       <c r="P45" t="n">
         <v>171.6750711781231</v>
@@ -38119,7 +38119,7 @@
         <v>114.7602386781225</v>
       </c>
       <c r="R45" t="n">
-        <v>55.81864825204434</v>
+        <v>174.1749897614786</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>140.7419169669549</v>
+        <v>53.28768952787424</v>
       </c>
       <c r="K46" t="n">
-        <v>87.56804322569533</v>
+        <v>365.1018357217919</v>
       </c>
       <c r="L46" t="n">
-        <v>528.4554463997829</v>
+        <v>528.4554463997831</v>
       </c>
       <c r="M46" t="n">
-        <v>118.1483387590504</v>
+        <v>118.1483387590505</v>
       </c>
       <c r="N46" t="n">
-        <v>115.3390353378818</v>
+        <v>115.339035337882</v>
       </c>
       <c r="O46" t="n">
-        <v>528.4554463997831</v>
+        <v>394.1626215276297</v>
       </c>
       <c r="P46" t="n">
-        <v>328.0705830563559</v>
+        <v>442.175534653647</v>
       </c>
       <c r="Q46" t="n">
-        <v>233.0050913245543</v>
+        <v>63.11339954240066</v>
       </c>
       <c r="R46" t="n">
-        <v>12.68614892100119</v>
+        <v>12.6861489210012</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
